--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3559000</v>
+        <v>1611000</v>
       </c>
       <c r="E8" s="3">
-        <v>3691000</v>
+        <v>1708000</v>
       </c>
       <c r="F8" s="3">
-        <v>3541000</v>
+        <v>1805000</v>
       </c>
       <c r="G8" s="3">
-        <v>3472000</v>
+        <v>1923000</v>
       </c>
       <c r="H8" s="3">
-        <v>3524000</v>
+        <v>1841000</v>
       </c>
       <c r="I8" s="3">
+        <v>1809000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3573000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3445000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3271000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3236000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3261000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3192000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12394000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2800000</v>
+        <v>1327000</v>
       </c>
       <c r="E9" s="3">
-        <v>2939000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2818000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2845000</v>
+        <v>1460000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="3">
-        <v>2881000</v>
+        <v>1596000</v>
       </c>
       <c r="I9" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3">
         <v>2903000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2768000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2520000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2626000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2583000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2492000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9811000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>759000</v>
+        <v>284000</v>
       </c>
       <c r="E10" s="3">
-        <v>752000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>723000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>627000</v>
+        <v>248000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="3">
-        <v>643000</v>
+        <v>245000</v>
       </c>
       <c r="I10" s="3">
+        <v>212000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="3">
         <v>670000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>677000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>751000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>610000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>678000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2583000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="E12" s="3">
-        <v>17000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="N12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
-        <v>29000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>26000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>25000</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>30000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>28000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>132000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>119000</v>
+        <v>-19000</v>
       </c>
       <c r="E14" s="3">
-        <v>499000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-11000</v>
+        <v>-17000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="3">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>766000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>26000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>73000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>155000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>131000</v>
+        <v>60000</v>
       </c>
       <c r="E15" s="3">
-        <v>139000</v>
-      </c>
-      <c r="F15" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3">
+        <v>144000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>142000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>141000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>140000</v>
+      </c>
+      <c r="O15" s="3">
         <v>137000</v>
       </c>
-      <c r="G15" s="3">
-        <v>149000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>141000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>144000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>142000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>141000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>140000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>137000</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>133000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>535000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3233000</v>
+        <v>1459000</v>
       </c>
       <c r="E17" s="3">
-        <v>3772000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3167000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3149000</v>
+        <v>1607000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H17" s="3">
-        <v>3179000</v>
+        <v>1761000</v>
       </c>
       <c r="I17" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3">
         <v>3249000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3112000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3588000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2965000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2980000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2947000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11575000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>326000</v>
+        <v>152000</v>
       </c>
       <c r="E18" s="3">
-        <v>-81000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>374000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>323000</v>
+        <v>101000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="3">
-        <v>345000</v>
+        <v>80000</v>
       </c>
       <c r="I18" s="3">
+        <v>162000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3">
         <v>324000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>333000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-317000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>271000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>281000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>245000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>819000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-31000</v>
+        <v>-26000</v>
       </c>
       <c r="E20" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-10000</v>
+        <v>11000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H20" s="3">
-        <v>-8000</v>
+        <v>14000</v>
       </c>
       <c r="I20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-40000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>171000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>469000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>94000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>426000</v>
+        <v>186000</v>
       </c>
       <c r="E21" s="3">
-        <v>29000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>479000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>462000</v>
+        <v>174000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H21" s="3">
-        <v>478000</v>
-      </c>
-      <c r="I21" s="3">
+        <v>157000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
         <v>427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>455000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-216000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>412000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>589000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>847000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2045000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>86000</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>87000</v>
+        <v>29000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="3">
-        <v>88000</v>
+        <v>28000</v>
       </c>
       <c r="I22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3">
         <v>89000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>114000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>98000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>183000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>230000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>499000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>209000</v>
+        <v>91000</v>
       </c>
       <c r="E23" s="3">
-        <v>-195000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>257000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>226000</v>
+        <v>83000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>249000</v>
+        <v>66000</v>
       </c>
       <c r="I23" s="3">
+        <v>137000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="3">
         <v>194000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>199000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-455000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>172000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>269000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>484000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>414000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>114000</v>
+        <v>31000</v>
       </c>
       <c r="E24" s="3">
-        <v>-74000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>70000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-51000</v>
+        <v>-103000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="3">
-        <v>88000</v>
+        <v>25000</v>
       </c>
       <c r="I24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3">
         <v>74000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>56000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>57000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>162000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1476000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>95000</v>
+        <v>60000</v>
       </c>
       <c r="E26" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>187000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>277000</v>
+        <v>186000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="3">
-        <v>161000</v>
+        <v>41000</v>
       </c>
       <c r="I26" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="3">
         <v>120000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>143000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-455000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>119000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>212000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>322000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>94000</v>
+        <v>60000</v>
       </c>
       <c r="E27" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F27" s="3">
         <v>186000</v>
       </c>
-      <c r="G27" s="3">
-        <v>275000</v>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="3">
-        <v>161000</v>
+        <v>41000</v>
       </c>
       <c r="I27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="3">
         <v>120000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>142000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-455000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>101000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>194000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>305000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-272000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>121000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="E32" s="3">
-        <v>29000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10000</v>
+        <v>-11000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="3">
-        <v>8000</v>
+        <v>-14000</v>
       </c>
       <c r="I32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>40000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-171000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-469000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-94000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94000</v>
+        <v>60000</v>
       </c>
       <c r="E33" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F33" s="3">
         <v>186000</v>
       </c>
-      <c r="G33" s="3">
-        <v>216000</v>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H33" s="3">
-        <v>161000</v>
+        <v>41000</v>
       </c>
       <c r="I33" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="3">
         <v>120000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-727000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>101000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>305000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94000</v>
+        <v>60000</v>
       </c>
       <c r="E35" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F35" s="3">
         <v>186000</v>
       </c>
-      <c r="G35" s="3">
-        <v>216000</v>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H35" s="3">
-        <v>161000</v>
+        <v>41000</v>
       </c>
       <c r="I35" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="3">
         <v>120000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-727000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>101000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>305000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1321000</v>
+        <v>635000</v>
       </c>
       <c r="E41" s="3">
-        <v>1357000</v>
+        <v>72000</v>
       </c>
       <c r="F41" s="3">
-        <v>1319000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2277000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1535000</v>
-      </c>
-      <c r="I41" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="3">
         <v>1455000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1205000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2150000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1815000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1785000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2553000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1863000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1863000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1773000</v>
+        <v>799000</v>
       </c>
       <c r="E43" s="3">
-        <v>1795000</v>
+        <v>520000</v>
       </c>
       <c r="F43" s="3">
-        <v>1816000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1498000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1658000</v>
-      </c>
-      <c r="I43" s="3">
+        <v>562000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3">
         <v>1637000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1663000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1374000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1523000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1527000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1510000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1451000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2555000</v>
+        <v>844000</v>
       </c>
       <c r="E44" s="3">
-        <v>2606000</v>
+        <v>820000</v>
       </c>
       <c r="F44" s="3">
-        <v>2612000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2492000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2622000</v>
-      </c>
-      <c r="I44" s="3">
+        <v>877000</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="3">
         <v>2659000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2648000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2480000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2453000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2416000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2328000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2253000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259000</v>
+        <v>635000</v>
       </c>
       <c r="E45" s="3">
-        <v>260000</v>
+        <v>28000</v>
       </c>
       <c r="F45" s="3">
-        <v>306000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>314000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>317000</v>
-      </c>
-      <c r="I45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="3">
         <v>324000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>379000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>374000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>357000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>305000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>319000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>325000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5908000</v>
+        <v>2913000</v>
       </c>
       <c r="E46" s="3">
-        <v>6018000</v>
+        <v>1440000</v>
       </c>
       <c r="F46" s="3">
-        <v>6053000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6581000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6132000</v>
-      </c>
-      <c r="I46" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="3">
         <v>6075000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5895000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6378000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6148000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6033000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6710000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5892000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2267,104 +2476,122 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>446000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1020000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5633000</v>
+        <v>2805000</v>
       </c>
       <c r="E48" s="3">
-        <v>5794000</v>
+        <v>2869000</v>
       </c>
       <c r="F48" s="3">
-        <v>6029000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5704000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5645000</v>
-      </c>
-      <c r="I48" s="3">
+        <v>2838000</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="3">
         <v>5582000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5628000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5594000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5526000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5507000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5473000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5499000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5128000</v>
+        <v>374000</v>
       </c>
       <c r="E49" s="3">
-        <v>5186000</v>
+        <v>386000</v>
       </c>
       <c r="F49" s="3">
-        <v>5421000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5419000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5471000</v>
-      </c>
-      <c r="I49" s="3">
+        <v>380000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="3">
         <v>5481000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5563000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5522000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5246000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5215000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5170000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5148000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>815000</v>
+        <v>377000</v>
       </c>
       <c r="E52" s="3">
-        <v>915000</v>
+        <v>46000</v>
       </c>
       <c r="F52" s="3">
-        <v>858000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>989000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1079000</v>
-      </c>
-      <c r="I52" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="3">
         <v>1081000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1133000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1224000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2317000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2351000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2358000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2479000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17484000</v>
+        <v>6469000</v>
       </c>
       <c r="E54" s="3">
-        <v>17913000</v>
+        <v>4741000</v>
       </c>
       <c r="F54" s="3">
-        <v>18361000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>18693000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>18327000</v>
-      </c>
-      <c r="I54" s="3">
+        <v>4790000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="3">
         <v>18219000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18219000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18718000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19237000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>19106000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>20157000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>20038000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1988000</v>
+        <v>938000</v>
       </c>
       <c r="E57" s="3">
-        <v>2095000</v>
+        <v>1061000</v>
       </c>
       <c r="F57" s="3">
-        <v>2193000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2129000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2061000</v>
-      </c>
-      <c r="I57" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="3">
         <v>2024000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1874000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1839000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1656000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1667000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1597000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1744000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1434000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>434000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>435000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>434000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>42000</v>
-      </c>
-      <c r="I58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="3">
         <v>48000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>48000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>38000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>55000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>48000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>47000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>40000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1038000</v>
+        <v>335000</v>
       </c>
       <c r="E59" s="3">
-        <v>1092000</v>
+        <v>280000</v>
       </c>
       <c r="F59" s="3">
-        <v>1031000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>957000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>911000</v>
-      </c>
-      <c r="I59" s="3">
+        <v>283000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="3">
         <v>905000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>880000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>947000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>966000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>943000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>943000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>965000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4460000</v>
+        <v>1279000</v>
       </c>
       <c r="E60" s="3">
-        <v>3621000</v>
+        <v>1341000</v>
       </c>
       <c r="F60" s="3">
-        <v>3659000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3520000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3014000</v>
-      </c>
-      <c r="I60" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="3">
         <v>2977000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2802000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2824000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2677000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2658000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2587000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2749000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4905000</v>
+        <v>1419000</v>
       </c>
       <c r="E61" s="3">
-        <v>5901000</v>
+        <v>250000</v>
       </c>
       <c r="F61" s="3">
-        <v>5899000</v>
+        <v>250000</v>
       </c>
       <c r="G61" s="3">
-        <v>5896000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>6315000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6312000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6309000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6806000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6802000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6796000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8046000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8044000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3409000</v>
+        <v>2145000</v>
       </c>
       <c r="E62" s="3">
-        <v>3525000</v>
+        <v>422000</v>
       </c>
       <c r="F62" s="3">
-        <v>3625000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3692000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3623000</v>
-      </c>
-      <c r="I62" s="3">
+        <v>461000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="3">
         <v>3712000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3826000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3797000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3899000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4029000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4104000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12788000</v>
+        <v>4856000</v>
       </c>
       <c r="E66" s="3">
-        <v>13059000</v>
+        <v>2027000</v>
       </c>
       <c r="F66" s="3">
-        <v>13195000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>13120000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>12966000</v>
-      </c>
-      <c r="I66" s="3">
+        <v>2064000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="3">
         <v>13015000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12951000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13808000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13289000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13366000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14675000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14923000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,40 +3494,46 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>55000</v>
       </c>
       <c r="L70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="M70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="N70" s="3">
         <v>58000</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>58000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-179000</v>
+        <v>3045000</v>
       </c>
       <c r="E72" s="3">
-        <v>-256000</v>
+        <v>2419000</v>
       </c>
       <c r="F72" s="3">
-        <v>-134000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-358000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-943000</v>
-      </c>
-      <c r="I72" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-519000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-567000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-768000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4641000</v>
+        <v>1613000</v>
       </c>
       <c r="E76" s="3">
-        <v>4799000</v>
+        <v>2714000</v>
       </c>
       <c r="F76" s="3">
-        <v>5111000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5518000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5306000</v>
-      </c>
-      <c r="I76" s="3">
+        <v>2726000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="3">
         <v>5149000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5213000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4855000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5890000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5682000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5424000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5057000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94000</v>
+        <v>60000</v>
       </c>
       <c r="E81" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F81" s="3">
         <v>186000</v>
       </c>
-      <c r="G81" s="3">
-        <v>216000</v>
+      <c r="F81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H81" s="3">
-        <v>161000</v>
+        <v>41000</v>
       </c>
       <c r="I81" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="3">
         <v>120000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-727000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>101000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>305000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131000</v>
+        <v>60000</v>
       </c>
       <c r="E83" s="3">
-        <v>139000</v>
-      </c>
-      <c r="F83" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="3">
+        <v>144000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>142000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>141000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>140000</v>
+      </c>
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="G83" s="3">
-        <v>149000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>141000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>144000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>142000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>141000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>140000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>137000</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>133000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1132000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52000</v>
+        <v>-295000</v>
       </c>
       <c r="E89" s="3">
-        <v>106000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-258000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>426000</v>
+        <v>312000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H89" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="3">
         <v>176000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-436000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>612000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>172000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>217000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>870000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-111000</v>
+        <v>-23000</v>
       </c>
       <c r="E91" s="3">
-        <v>-136000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-168000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-271000</v>
+        <v>-81000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H91" s="3">
-        <v>-209000</v>
-      </c>
-      <c r="I91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="3">
         <v>-171000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-117000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-236000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-131000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-126000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-206000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="3">
         <v>117000</v>
       </c>
-      <c r="E94" s="3">
-        <v>129000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>42000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>354000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>65000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>117000</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>41000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>100000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>69000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1110000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-165000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-29000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-29000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-30000</v>
       </c>
       <c r="L96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-44000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-43000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-45000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-228000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-202000</v>
+        <v>1374000</v>
       </c>
       <c r="E100" s="3">
-        <v>-201000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-741000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-40000</v>
+        <v>-227000</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H100" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="I100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" s="3">
         <v>-35000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-542000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-45000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-860000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-43000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-754000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36000</v>
+        <v>1156000</v>
       </c>
       <c r="E102" s="3">
-        <v>34000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-956000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>740000</v>
+        <v>25000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H102" s="3">
-        <v>82000</v>
-      </c>
-      <c r="I102" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="3">
         <v>252000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-945000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>335000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>30000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-768000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>690000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-56000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1611000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1805000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1923000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1841000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1809000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1882000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3573000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3445000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3271000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3236000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3261000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3192000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12394000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1327000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1460000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1596000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1597000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3">
         <v>2903000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2768000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2520000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2626000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2583000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2492000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9811000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E10" s="3">
         <v>284000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>248000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="3">
+        <v>252000</v>
+      </c>
+      <c r="I10" s="3">
         <v>245000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>212000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3">
         <v>670000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>677000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>751000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>610000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>678000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2583000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
+      <c r="F12" s="3">
+        <v>11000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3">
         <v>29000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>132000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-17000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-104000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>766000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>73000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>155000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E15" s="3">
         <v>60000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I15" s="3">
         <v>63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>74000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3">
         <v>144000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>142000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>141000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>140000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>137000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>133000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>535000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1459000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1607000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1761000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1647000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="3">
         <v>3249000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3112000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3588000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2965000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2980000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2947000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11575000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E18" s="3">
         <v>152000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>101000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3">
+        <v>52000</v>
+      </c>
+      <c r="I18" s="3">
         <v>80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>162000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3">
         <v>324000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>333000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-317000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>271000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>281000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>245000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>819000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>171000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>469000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>94000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>186000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>174000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="3">
+        <v>106000</v>
+      </c>
+      <c r="I21" s="3">
         <v>157000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3">
         <v>427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>455000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-216000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>412000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>589000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>847000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2045000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
         <v>35000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3">
         <v>89000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>98000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>183000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>230000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>499000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E23" s="3">
         <v>91000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I23" s="3">
         <v>66000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>137000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
         <v>194000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-455000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>172000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>484000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>414000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-103000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="3">
         <v>25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3">
         <v>74000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>53000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>162000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1476000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E26" s="3">
         <v>60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>186000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="3">
         <v>41000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>99000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3">
         <v>120000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-455000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>119000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>212000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>322000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E27" s="3">
         <v>60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>186000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="3">
         <v>41000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>99000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="3">
         <v>120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-455000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>194000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>305000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1721,18 +1782,18 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-272000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1740,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>121000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-171000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-469000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-94000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E33" s="3">
         <v>60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>186000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="3">
         <v>41000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>99000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="3">
         <v>120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-727000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>101000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>305000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E35" s="3">
         <v>60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>186000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="3">
         <v>41000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>99000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="3">
         <v>120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-727000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>101000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>305000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,23 +2226,24 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E41" s="3">
         <v>635000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2166,32 +2253,35 @@
       <c r="J41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="3">
         <v>1455000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1205000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2150000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1815000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1785000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1863000</v>
       </c>
       <c r="R41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,23 +2330,26 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E43" s="3">
         <v>799000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>520000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>562000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2266,47 +2359,50 @@
       <c r="J43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="3">
         <v>1637000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1663000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1374000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1523000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1527000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1510000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1451000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E44" s="3">
         <v>844000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>820000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>877000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2316,47 +2412,50 @@
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3">
         <v>2659000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2648000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2480000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2453000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2416000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2328000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2253000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E45" s="3">
         <v>635000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2366,47 +2465,50 @@
       <c r="J45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="3">
         <v>324000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>379000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>374000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>357000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>305000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>319000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>325000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2913000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1440000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1535000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2416,32 +2518,35 @@
       <c r="J46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="3">
         <v>6075000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5895000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6378000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6148000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6033000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5892000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2482,31 +2587,34 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>446000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1020000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2805000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2869000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2838000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2516,32 +2624,35 @@
       <c r="J48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="3">
         <v>5582000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5628000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5594000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5526000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5507000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5473000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5499000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,14 +2660,14 @@
         <v>374000</v>
       </c>
       <c r="E49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="F49" s="3">
         <v>386000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>380000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>24</v>
       </c>
@@ -2566,32 +2677,35 @@
       <c r="J49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="3">
         <v>5481000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5563000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5522000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5246000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5215000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5170000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5148000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,23 +2807,26 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E52" s="3">
         <v>377000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>24</v>
       </c>
@@ -2716,32 +2836,35 @@
       <c r="J52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="3">
         <v>1081000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1133000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1224000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2317000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2351000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2358000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2479000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,23 +2913,26 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5733000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6469000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4741000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4790000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>24</v>
       </c>
@@ -2816,32 +2942,35 @@
       <c r="J54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="3">
-        <v>18219000</v>
+      <c r="K54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L54" s="3">
         <v>18219000</v>
       </c>
       <c r="M54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="N54" s="3">
         <v>18718000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19237000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19106000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20157000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20038000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,23 +3010,24 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E57" s="3">
         <v>938000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1061000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1056000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>24</v>
       </c>
@@ -2906,41 +3037,44 @@
       <c r="J57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="3">
         <v>2024000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1874000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1839000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1656000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1667000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1744000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
@@ -2956,47 +3090,50 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>48000</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>48000</v>
       </c>
       <c r="M58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="N58" s="3">
         <v>38000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E59" s="3">
         <v>335000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>280000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>283000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3006,47 +3143,50 @@
       <c r="J59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="3">
         <v>905000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>880000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>947000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>966000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>943000</v>
       </c>
       <c r="P59" s="3">
         <v>943000</v>
       </c>
       <c r="Q59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="R59" s="3">
         <v>965000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1279000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1341000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1339000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3056,46 +3196,49 @@
       <c r="J60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="3">
         <v>2977000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2802000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2824000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2677000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2658000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2587000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2749000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>250000</v>
       </c>
       <c r="F61" s="3">
         <v>250000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3107,46 +3250,49 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>6312000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6309000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6806000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6802000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6796000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8046000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8044000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2145000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>422000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>461000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3156,32 +3302,35 @@
       <c r="J62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="3">
         <v>3712000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3826000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4164000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3797000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3899000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4029000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4104000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,23 +3485,26 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4587000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4856000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2027000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2064000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>24</v>
       </c>
@@ -3356,32 +3514,35 @@
       <c r="J66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="3">
         <v>13015000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12951000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13808000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13289000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13366000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14675000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14923000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>55000</v>
@@ -3536,7 +3704,7 @@
         <v>55000</v>
       </c>
       <c r="N70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="O70" s="3">
         <v>58000</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,23 +3771,26 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3045000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2419000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2416000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>24</v>
       </c>
@@ -3626,32 +3800,35 @@
       <c r="J72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-519000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-567000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-768000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,23 +3983,26 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1146000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1613000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2714000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2726000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>24</v>
       </c>
@@ -3826,32 +4012,35 @@
       <c r="J76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" s="3">
         <v>5149000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5213000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4855000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5890000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5682000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5424000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5057000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E81" s="3">
         <v>60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>186000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I81" s="3">
         <v>41000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>99000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="3">
         <v>120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-727000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>101000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>305000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E83" s="3">
         <v>60000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>24</v>
+      <c r="G83" s="3">
+        <v>63000</v>
       </c>
       <c r="H83" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="3">
         <v>144000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>142000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>140000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>133000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1132000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-295000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>312000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>24</v>
+      <c r="G89" s="3">
+        <v>118000</v>
       </c>
       <c r="H89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="J89" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="3">
         <v>176000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-436000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>612000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>172000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>217000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>870000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-81000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>24</v>
+      <c r="G91" s="3">
+        <v>-38000</v>
       </c>
       <c r="H91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-42000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="3">
         <v>-171000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-236000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-131000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-126000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-206000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E94" s="3">
         <v>78000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>24</v>
+      <c r="G94" s="3">
+        <v>-38000</v>
       </c>
       <c r="H94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-38000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="3">
         <v>117000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>41000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>69000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-165000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4642,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-30000</v>
@@ -4651,22 +4885,25 @@
         <v>-30000</v>
       </c>
       <c r="N96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-44000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-43000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-228000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-643000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1374000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-227000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>24</v>
+      <c r="G100" s="3">
+        <v>-78000</v>
       </c>
       <c r="H100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I100" s="3">
         <v>14000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L100" s="3">
         <v>-35000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-542000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-860000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-754000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>24</v>
+      <c r="G101" s="3">
+        <v>-1000</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1156000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>24</v>
+      <c r="G102" s="3">
+        <v>1000</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-35000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="J102" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="3">
         <v>252000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-945000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>335000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-768000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>690000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-56000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1187000</v>
+        <v>1415000</v>
       </c>
       <c r="E8" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1611000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1708000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1805000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1923000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1841000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1809000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1882000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3573000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3445000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3271000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3236000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3261000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3192000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12394000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1046000</v>
+        <v>1218000</v>
       </c>
       <c r="E9" s="3">
+        <v>2396000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1327000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1460000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="3">
+        <v>1543000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1671000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1596000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1597000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3">
         <v>2903000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2768000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2520000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2626000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2583000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2492000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9811000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>141000</v>
+        <v>197000</v>
       </c>
       <c r="E10" s="3">
+        <v>402000</v>
+      </c>
+      <c r="F10" s="3">
         <v>284000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>248000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H10" s="3">
+        <v>262000</v>
+      </c>
+      <c r="I10" s="3">
         <v>252000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>245000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>212000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3">
         <v>670000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>677000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>751000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>610000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>678000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2583000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,52 +945,55 @@
         <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
+      <c r="G12" s="3">
+        <v>11000</v>
       </c>
       <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3">
         <v>29000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>132000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>77000</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-19000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-17000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I14" s="3">
         <v>38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-104000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>766000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>73000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>155000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>68000</v>
+        <v>63000</v>
       </c>
       <c r="E15" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F15" s="3">
         <v>60000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>62000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I15" s="3">
         <v>64000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>74000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3">
         <v>144000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>142000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>141000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>140000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>137000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>133000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>535000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1254000</v>
+        <v>1351000</v>
       </c>
       <c r="E17" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1459000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1607000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H17" s="3">
+        <v>1761000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1871000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1761000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1647000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3">
         <v>3249000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3112000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3588000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2965000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2980000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2947000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11575000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-67000</v>
+        <v>64000</v>
       </c>
       <c r="E18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F18" s="3">
         <v>152000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>101000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H18" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I18" s="3">
         <v>52000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>162000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3">
         <v>324000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>333000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-317000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>271000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>281000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>245000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>819000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-16000</v>
+        <v>-27000</v>
       </c>
       <c r="E20" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>171000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>469000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>94000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-15000</v>
+        <v>100000</v>
       </c>
       <c r="E21" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F21" s="3">
         <v>186000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>174000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H21" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I21" s="3">
         <v>106000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>157000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>241000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="3">
         <v>427000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>455000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-216000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>412000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>589000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>847000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2045000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="E22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F22" s="3">
         <v>35000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H22" s="3">
         <v>29000</v>
       </c>
       <c r="I22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3">
         <v>89000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>114000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>98000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>183000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>230000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>499000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-123000</v>
+        <v>15000</v>
       </c>
       <c r="E23" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F23" s="3">
         <v>91000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>66000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>137000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3">
         <v>194000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-455000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>172000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>484000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>414000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-31000</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-103000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>162000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1476000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-92000</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>186000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>99000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="3">
         <v>120000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-455000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>119000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>212000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>322000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-92000</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F27" s="3">
         <v>60000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>186000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3">
         <v>120000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-455000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>305000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1785,18 +1846,18 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-272000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>121000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="E32" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F32" s="3">
         <v>26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-469000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-94000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92000</v>
+        <v>5000</v>
       </c>
       <c r="E33" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F33" s="3">
         <v>60000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>186000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>99000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="3">
         <v>120000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-727000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>101000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>305000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92000</v>
+        <v>5000</v>
       </c>
       <c r="E35" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F35" s="3">
         <v>60000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>186000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>99000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="3">
         <v>120000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-727000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>101000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>305000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,26 +2313,27 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E41" s="3">
         <v>595000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>635000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2256,32 +2343,35 @@
       <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="3">
         <v>1455000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1205000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2150000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1815000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1785000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1863000</v>
       </c>
       <c r="S41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,26 +2423,29 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E43" s="3">
         <v>683000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>799000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>520000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>562000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2362,50 +2455,53 @@
       <c r="K43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="3">
         <v>1637000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1663000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1374000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1523000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1527000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1510000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1451000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E44" s="3">
         <v>678000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>844000</v>
       </c>
-      <c r="F44" s="3">
-        <v>820000</v>
-      </c>
       <c r="G44" s="3">
+        <v>828000</v>
+      </c>
+      <c r="H44" s="3">
         <v>877000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2415,50 +2511,53 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3">
         <v>2659000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2648000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2480000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2453000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2416000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2328000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2253000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E45" s="3">
         <v>54000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>635000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2468,50 +2567,53 @@
       <c r="K45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3">
         <v>324000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>379000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>374000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>357000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>305000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>319000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>325000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2521000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2010000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2913000</v>
       </c>
-      <c r="F46" s="3">
-        <v>1440000</v>
-      </c>
       <c r="G46" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1535000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2521,32 +2623,35 @@
       <c r="K46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="3">
         <v>6075000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5895000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6378000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6148000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6033000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6710000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5892000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2590,34 +2695,37 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>446000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1020000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2864000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2805000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2869000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2838000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2627,50 +2735,53 @@
       <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="3">
         <v>5582000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5628000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5594000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5526000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5507000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5473000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5499000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>374000</v>
+        <v>381000</v>
       </c>
       <c r="E49" s="3">
         <v>374000</v>
       </c>
       <c r="F49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="G49" s="3">
         <v>386000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>380000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>24</v>
       </c>
@@ -2680,32 +2791,35 @@
       <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="3">
         <v>5481000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5563000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5522000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5246000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5215000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5170000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5148000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,26 +2927,29 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E52" s="3">
         <v>485000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>377000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>24</v>
       </c>
@@ -2839,32 +2959,35 @@
       <c r="K52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="3">
         <v>1081000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1133000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1224000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2317000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2351000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2358000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2479000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,26 +3039,29 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6146000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5733000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6469000</v>
       </c>
-      <c r="F54" s="3">
-        <v>4741000</v>
-      </c>
       <c r="G54" s="3">
+        <v>5058000</v>
+      </c>
+      <c r="H54" s="3">
         <v>4790000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>24</v>
       </c>
@@ -2945,32 +3071,35 @@
       <c r="K54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="3">
-        <v>18219000</v>
+      <c r="L54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M54" s="3">
         <v>18219000</v>
       </c>
       <c r="N54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="O54" s="3">
         <v>18718000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19237000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19106000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20157000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20038000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,26 +3141,27 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E57" s="3">
         <v>683000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>938000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1061000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1056000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3040,44 +3171,47 @@
       <c r="K57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="3">
         <v>2024000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1874000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1839000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1656000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1667000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1597000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1744000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3093,50 +3227,53 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>48000</v>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M58" s="3">
         <v>48000</v>
       </c>
       <c r="N58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="O58" s="3">
         <v>38000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E59" s="3">
         <v>401000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>335000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>280000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>283000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3146,50 +3283,53 @@
       <c r="K59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="3">
         <v>905000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>880000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>947000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>966000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>943000</v>
       </c>
       <c r="Q59" s="3">
         <v>943000</v>
       </c>
       <c r="R59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="S59" s="3">
         <v>965000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1084000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1279000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1341000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1339000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3199,49 +3339,52 @@
       <c r="K60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="3">
         <v>2977000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2802000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2824000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2677000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2658000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2587000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2749000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1276000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>250000</v>
       </c>
       <c r="G61" s="3">
         <v>250000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3253,49 +3396,52 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>6312000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6309000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6806000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6802000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6796000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8046000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8044000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2155000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2213000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2145000</v>
       </c>
-      <c r="F62" s="3">
-        <v>422000</v>
-      </c>
       <c r="G62" s="3">
+        <v>558000</v>
+      </c>
+      <c r="H62" s="3">
         <v>461000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3305,32 +3451,35 @@
       <c r="K62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="3">
         <v>3712000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3826000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4164000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3797000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3899000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4029000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4104000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,26 +3643,29 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4672000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4587000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4856000</v>
       </c>
-      <c r="F66" s="3">
-        <v>2027000</v>
-      </c>
       <c r="G66" s="3">
+        <v>2099000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2064000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>24</v>
       </c>
@@ -3517,32 +3675,35 @@
       <c r="K66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="3">
         <v>13015000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12951000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13808000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13289000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13366000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14675000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14923000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>55000</v>
@@ -3707,7 +3875,7 @@
         <v>55000</v>
       </c>
       <c r="O70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="P70" s="3">
         <v>58000</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,26 +3945,29 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3045000</v>
       </c>
-      <c r="F72" s="3">
-        <v>2419000</v>
-      </c>
       <c r="G72" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="H72" s="3">
         <v>2416000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>24</v>
       </c>
@@ -3803,32 +3977,35 @@
       <c r="K72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-519000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-567000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-768000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,26 +4169,29 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1474000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1146000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1613000</v>
       </c>
-      <c r="F76" s="3">
-        <v>2714000</v>
-      </c>
       <c r="G76" s="3">
+        <v>2959000</v>
+      </c>
+      <c r="H76" s="3">
         <v>2726000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4015,32 +4201,35 @@
       <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="3">
         <v>5149000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5213000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4855000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5890000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5682000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5424000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5057000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92000</v>
+        <v>5000</v>
       </c>
       <c r="E81" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F81" s="3">
         <v>60000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>186000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="3">
         <v>120000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-727000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>101000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>305000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68000</v>
+        <v>63000</v>
       </c>
       <c r="E83" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F83" s="3">
         <v>60000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>62000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="3">
         <v>144000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>142000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>140000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>133000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1132000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30000</v>
+        <v>283000</v>
       </c>
       <c r="E89" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-295000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>312000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>197000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="3">
         <v>176000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-436000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>612000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>172000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>217000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>870000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21000</v>
+        <v>-82000</v>
       </c>
       <c r="E91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-81000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="3">
         <v>-171000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-236000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-131000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-206000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20000</v>
+        <v>-82000</v>
       </c>
       <c r="E94" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F94" s="3">
         <v>78000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>180000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="3">
         <v>117000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>41000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>69000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1110000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-165000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4879,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-30000</v>
@@ -4888,22 +5122,25 @@
         <v>-30000</v>
       </c>
       <c r="O96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-44000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-45000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-228000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-643000</v>
+        <v>4000</v>
       </c>
       <c r="E100" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1374000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-227000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-78000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-410000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="3">
         <v>-35000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-542000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-860000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-754000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
       </c>
       <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-633000</v>
+        <v>207000</v>
       </c>
       <c r="E102" s="3">
+        <v>523000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1156000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-35000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" s="3">
         <v>252000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-945000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>335000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-768000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>690000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-56000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1415000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2798000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1611000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1708000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1805000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1923000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1841000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1809000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1882000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3573000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3445000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3271000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3236000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3261000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3192000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12394000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1218000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2396000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1327000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1460000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1543000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1671000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1596000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1597000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3">
         <v>2903000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2768000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2520000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2626000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2583000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2492000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9811000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E10" s="3">
         <v>197000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>402000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>284000</v>
       </c>
-      <c r="G10" s="3">
-        <v>248000</v>
-      </c>
       <c r="H10" s="3">
+        <v>186000</v>
+      </c>
+      <c r="I10" s="3">
         <v>262000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>252000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>245000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>212000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3">
         <v>670000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>677000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>751000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>610000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>678000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2583000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11000</v>
       </c>
       <c r="G12" s="3">
         <v>11000</v>
       </c>
       <c r="H12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3">
         <v>29000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>30000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>132000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>64000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-104000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>766000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>73000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>155000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E15" s="3">
         <v>63000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>128000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>60000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>62000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>74000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3">
         <v>144000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>142000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>141000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>140000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>137000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>133000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>535000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1508000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1351000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2736000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1459000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1607000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1669000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1761000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1871000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1761000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1647000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3">
         <v>3249000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3112000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3588000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2965000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2980000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2947000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11575000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E18" s="3">
         <v>64000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>152000</v>
       </c>
-      <c r="G18" s="3">
-        <v>101000</v>
-      </c>
       <c r="H18" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I18" s="3">
         <v>44000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="3">
         <v>324000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>333000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-317000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>271000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>281000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>245000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>819000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,134 +1345,141 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3">
         <v>-41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>171000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>469000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>94000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
         <v>100000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>148000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>186000</v>
       </c>
-      <c r="G21" s="3">
-        <v>174000</v>
-      </c>
       <c r="H21" s="3">
+        <v>112000</v>
+      </c>
+      <c r="I21" s="3">
         <v>107000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>106000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>157000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3">
         <v>427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>455000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-216000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>412000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>589000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>847000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2045000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E22" s="3">
         <v>22000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>75000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>29000</v>
       </c>
       <c r="H22" s="3">
         <v>29000</v>
@@ -1449,152 +1488,161 @@
         <v>29000</v>
       </c>
       <c r="J22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3">
         <v>89000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>114000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>98000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>183000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>230000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>499000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E23" s="3">
         <v>15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>91000</v>
       </c>
-      <c r="G23" s="3">
-        <v>83000</v>
-      </c>
       <c r="H23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I23" s="3">
         <v>15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="3">
         <v>194000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>199000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-455000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>172000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>269000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>484000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>414000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-103000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="I24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3">
         <v>74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>53000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>162000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1476000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>99000</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3">
+        <v>120000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>143000</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-455000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>119000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>212000</v>
+      </c>
+      <c r="S26" s="3">
+        <v>322000</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-1062000</v>
+      </c>
+      <c r="U26" s="3">
         <v>186000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>41000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>99000</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="3">
-        <v>120000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>143000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-455000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>119000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>212000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>322000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1062000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
-        <v>186000</v>
-      </c>
       <c r="H27" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="3">
         <v>120000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-455000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>194000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>305000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1849,18 +1909,18 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-272000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1868,13 +1928,16 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>121000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="3">
         <v>41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-171000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-469000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-94000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
-        <v>186000</v>
-      </c>
       <c r="H33" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="3">
         <v>120000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-727000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>305000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
-        <v>186000</v>
-      </c>
       <c r="H35" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="3">
         <v>120000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-727000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>305000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,29 +2399,30 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E41" s="3">
         <v>802000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>595000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>635000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2346,32 +2432,35 @@
       <c r="L41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="3">
         <v>1455000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1205000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2150000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1815000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1785000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1863000</v>
       </c>
       <c r="T41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,29 +2515,32 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E43" s="3">
         <v>758000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>683000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>799000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>520000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>562000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2458,53 +2550,56 @@
       <c r="L43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="3">
         <v>1637000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1663000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1374000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1523000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1527000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1510000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1451000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E44" s="3">
         <v>901000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>678000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>844000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>828000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>877000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2514,53 +2609,56 @@
       <c r="L44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3">
         <v>2659000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2648000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2480000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2453000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2416000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2328000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2253000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E45" s="3">
         <v>60000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>635000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2570,53 +2668,56 @@
       <c r="L45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="3">
         <v>324000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>379000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>374000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>357000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>305000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>319000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>325000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2521000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2010000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2913000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1757000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1535000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2626,32 +2727,35 @@
       <c r="L46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="3">
         <v>6075000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5895000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6378000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6148000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6033000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6710000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5892000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2698,37 +2802,40 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>446000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1020000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2848000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2805000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2869000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2838000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2738,53 +2845,56 @@
       <c r="L48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="3">
         <v>5582000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5628000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5594000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5526000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5507000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5473000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5499000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E49" s="3">
         <v>381000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>374000</v>
       </c>
       <c r="F49" s="3">
         <v>374000</v>
       </c>
       <c r="G49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="H49" s="3">
         <v>386000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>380000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>24</v>
       </c>
@@ -2794,32 +2904,35 @@
       <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="3">
         <v>5481000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5563000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5522000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5246000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5215000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5170000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5148000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,29 +3046,32 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E52" s="3">
         <v>396000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>485000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>377000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>24</v>
       </c>
@@ -2962,32 +3081,35 @@
       <c r="L52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="3">
         <v>1081000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1133000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1224000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2317000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2351000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2358000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2479000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,29 +3164,32 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6314000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6146000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5733000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6469000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5058000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4790000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3074,32 +3199,35 @@
       <c r="L54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="3">
-        <v>18219000</v>
+      <c r="M54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N54" s="3">
         <v>18219000</v>
       </c>
       <c r="O54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="P54" s="3">
         <v>18718000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19237000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19106000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20157000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20038000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,29 +3271,30 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="E57" s="3">
         <v>836000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>683000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>938000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1061000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1056000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3174,32 +3304,35 @@
       <c r="L57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="3">
         <v>2024000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1874000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1839000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1667000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1597000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1744000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,12 +3342,12 @@
       <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3230,53 +3363,56 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>48000</v>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N58" s="3">
         <v>48000</v>
       </c>
       <c r="O58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="P58" s="3">
         <v>38000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E59" s="3">
         <v>390000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>335000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>280000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3286,53 +3422,56 @@
       <c r="L59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="3">
         <v>905000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>880000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>947000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>966000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>943000</v>
       </c>
       <c r="R59" s="3">
         <v>943000</v>
       </c>
       <c r="S59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="T59" s="3">
         <v>965000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1226000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1084000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1279000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1341000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1339000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3342,52 +3481,55 @@
       <c r="L60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="3">
         <v>2977000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2802000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2824000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2677000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2658000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2587000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2749000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1277000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1276000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>250000</v>
       </c>
       <c r="H61" s="3">
         <v>250000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3399,52 +3541,55 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>6312000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6309000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6806000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6802000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6796000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8046000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8044000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2155000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2213000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2145000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>558000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>461000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3454,32 +3599,35 @@
       <c r="L62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="3">
         <v>3712000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3826000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4164000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3797000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3899000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4029000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4104000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,29 +3800,32 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4881000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4672000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4587000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4856000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2099000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2064000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>24</v>
       </c>
@@ -3678,32 +3835,35 @@
       <c r="L66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="3">
         <v>13015000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12951000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13808000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13289000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13366000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14675000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14923000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>55000</v>
@@ -3878,7 +4045,7 @@
         <v>55000</v>
       </c>
       <c r="P70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="Q70" s="3">
         <v>58000</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,29 +4118,32 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3045000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2664000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2416000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>24</v>
       </c>
@@ -3980,32 +4153,35 @@
       <c r="L72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-519000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-567000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-768000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,29 +4354,32 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1474000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1146000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1613000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2959000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2726000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4204,32 +4389,35 @@
       <c r="L76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="3">
         <v>5149000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5213000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4855000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5890000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5682000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5424000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5057000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
-        <v>186000</v>
-      </c>
       <c r="H81" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="3">
         <v>120000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-727000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>305000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>128000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="3">
         <v>144000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>142000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>141000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>140000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>133000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1132000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>283000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-265000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-295000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>312000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>197000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="3">
         <v>176000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-436000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>612000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>172000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>217000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>870000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-82000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-81000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" s="3">
         <v>-171000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-236000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-126000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-206000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>78000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>180000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="3">
         <v>117000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>41000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>69000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1110000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-165000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5116,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-30000</v>
@@ -5125,22 +5358,25 @@
         <v>-30000</v>
       </c>
       <c r="P96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-43000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-45000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-228000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>731000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1374000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-227000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-78000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-410000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="3">
         <v>-35000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-542000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-860000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-754000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,107 +5620,113 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1000</v>
       </c>
       <c r="I101" s="3">
         <v>-1000</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>207000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>523000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1156000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N102" s="3">
         <v>252000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-945000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>335000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-768000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>690000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-56000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1675000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1462000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1415000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2798000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1611000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1708000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1805000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1923000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1841000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1809000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1882000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3573000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3445000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3271000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3236000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3261000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3192000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12394000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1431000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1248000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1218000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2396000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1327000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1522000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1543000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1671000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1596000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1597000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="3">
         <v>2903000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2768000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2520000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2626000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2583000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2492000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9811000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E10" s="3">
         <v>214000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>197000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>402000</v>
       </c>
-      <c r="G10" s="3">
-        <v>284000</v>
-      </c>
       <c r="H10" s="3">
+        <v>266000</v>
+      </c>
+      <c r="I10" s="3">
         <v>186000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>262000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>252000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>245000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>212000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="3">
         <v>670000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>677000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>751000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>610000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>678000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2583000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11000</v>
       </c>
       <c r="H12" s="3">
         <v>11000</v>
       </c>
       <c r="I12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="3">
         <v>29000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>132000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>127000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>58000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-104000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>766000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>73000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>155000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E15" s="3">
         <v>60000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>63000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>128000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>62000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>74000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="3">
         <v>144000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>142000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>141000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>140000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>137000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>133000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>535000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1508000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1351000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2736000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1459000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1477000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1669000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1761000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1871000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1761000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1647000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="3">
         <v>3249000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3112000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3588000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2965000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2980000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2947000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11575000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62000</v>
       </c>
-      <c r="G18" s="3">
-        <v>152000</v>
-      </c>
       <c r="H18" s="3">
+        <v>134000</v>
+      </c>
+      <c r="I18" s="3">
         <v>39000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="3">
         <v>324000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>333000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-317000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>271000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>281000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>245000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>819000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,143 +1379,150 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="3">
         <v>-41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>171000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>469000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>94000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>148000</v>
       </c>
-      <c r="G21" s="3">
-        <v>186000</v>
-      </c>
       <c r="H21" s="3">
+        <v>168000</v>
+      </c>
+      <c r="I21" s="3">
         <v>112000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>107000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>157000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="3">
         <v>427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>455000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>412000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>589000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>847000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2045000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E22" s="3">
         <v>21000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>75000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>29000</v>
       </c>
       <c r="I22" s="3">
         <v>29000</v>
@@ -1491,158 +1531,167 @@
         <v>29000</v>
       </c>
       <c r="K22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="3">
         <v>89000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>114000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>98000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>183000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>230000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>499000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55000</v>
       </c>
-      <c r="G23" s="3">
-        <v>91000</v>
-      </c>
       <c r="H23" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I23" s="3">
         <v>21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="3">
         <v>194000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>199000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-455000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>172000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>269000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>484000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>414000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5000</v>
       </c>
-      <c r="G24" s="3">
-        <v>31000</v>
-      </c>
       <c r="H24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-117000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="3">
         <v>74000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>162000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1476000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50000</v>
       </c>
-      <c r="G26" s="3">
-        <v>60000</v>
-      </c>
       <c r="H26" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I26" s="3">
         <v>138000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="3">
         <v>120000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-455000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>119000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>212000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>322000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50000</v>
       </c>
-      <c r="G27" s="3">
-        <v>60000</v>
-      </c>
       <c r="H27" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I27" s="3">
         <v>138000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="3">
         <v>120000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>142000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-455000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>101000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>194000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>305000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1912,18 +1973,18 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -1931,13 +1992,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>121000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="3">
         <v>41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-171000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-469000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-94000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50000</v>
       </c>
-      <c r="G33" s="3">
-        <v>60000</v>
-      </c>
       <c r="H33" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I33" s="3">
         <v>138000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="3">
         <v>120000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-727000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>101000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>194000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>305000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50000</v>
       </c>
-      <c r="G35" s="3">
-        <v>60000</v>
-      </c>
       <c r="H35" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I35" s="3">
         <v>138000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="3">
         <v>120000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-727000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>101000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>194000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>305000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,32 +2486,33 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E41" s="3">
         <v>787000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>802000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>595000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>635000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2435,32 +2522,35 @@
       <c r="M41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="3">
         <v>1455000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1205000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2150000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1815000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1785000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1863000</v>
       </c>
       <c r="U41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,32 +2608,35 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E43" s="3">
         <v>759000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>758000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>683000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>799000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>520000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>562000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2553,56 +2646,59 @@
       <c r="M43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="3">
         <v>1637000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1663000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1374000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1523000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1527000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1510000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1451000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1043000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>901000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>678000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>844000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>828000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>877000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2612,56 +2708,59 @@
       <c r="M44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="3">
         <v>2659000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2648000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2480000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2453000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2416000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2328000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2253000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E45" s="3">
         <v>53000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>54000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>635000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2671,56 +2770,59 @@
       <c r="M45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="3">
         <v>324000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>379000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>374000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>357000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>305000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>319000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>325000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2958000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2642000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2521000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2010000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2913000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1757000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1535000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2730,32 +2832,35 @@
       <c r="M46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="3">
         <v>6075000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5895000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6378000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6148000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6033000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6710000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5892000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2805,40 +2910,43 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>446000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1020000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2811000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2856000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2848000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2864000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2805000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2869000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2838000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2848,56 +2956,59 @@
       <c r="M48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="3">
         <v>5582000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5628000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5594000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5526000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5507000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5473000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5499000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E49" s="3">
         <v>390000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>381000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>374000</v>
       </c>
       <c r="G49" s="3">
         <v>374000</v>
       </c>
       <c r="H49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="I49" s="3">
         <v>386000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>380000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
@@ -2907,32 +3018,35 @@
       <c r="M49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="3">
         <v>5481000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5563000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5522000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5246000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5215000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5170000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5148000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,32 +3166,35 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E52" s="3">
         <v>426000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>396000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>485000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>377000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3084,32 +3204,35 @@
       <c r="M52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="3">
         <v>1081000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1133000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2317000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2351000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2358000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2479000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,32 +3290,35 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6573000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6314000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6146000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5733000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6469000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5058000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4790000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3202,32 +3328,35 @@
       <c r="M54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="3">
-        <v>18219000</v>
+      <c r="N54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O54" s="3">
         <v>18219000</v>
       </c>
       <c r="P54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>18718000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19237000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19106000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20157000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20038000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,32 +3402,33 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1106000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>836000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>683000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>938000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1061000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1056000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3307,32 +3438,35 @@
       <c r="M57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="3">
         <v>2024000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1874000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1839000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1656000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1667000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1597000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1744000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3345,12 +3479,12 @@
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3366,56 +3500,59 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>48000</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>48000</v>
       </c>
       <c r="P58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>38000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>55000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>47000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E59" s="3">
         <v>367000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>390000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>401000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>335000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>280000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3425,56 +3562,59 @@
       <c r="M59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="3">
         <v>905000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>880000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>947000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>966000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>943000</v>
       </c>
       <c r="S59" s="3">
         <v>943000</v>
       </c>
       <c r="T59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="U59" s="3">
         <v>965000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1473000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1226000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1084000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1279000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1341000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1339000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3484,55 +3624,58 @@
       <c r="M60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="3">
         <v>2977000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2802000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2824000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2677000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2658000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2587000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2749000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1278000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1277000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1276000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>250000</v>
       </c>
       <c r="I61" s="3">
         <v>250000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3544,55 +3687,58 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>6312000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6309000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6806000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6802000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6796000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8046000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8044000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2116000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2155000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2213000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2145000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>558000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>461000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3602,32 +3748,35 @@
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="3">
         <v>3712000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3826000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4164000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3797000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3899000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4029000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4104000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,32 +3958,35 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5097000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4881000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4672000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4587000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4856000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2099000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2064000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>24</v>
       </c>
@@ -3838,32 +3996,35 @@
       <c r="M66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="3">
         <v>13015000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12951000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13808000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13289000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13366000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14675000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14923000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>55000</v>
@@ -4048,7 +4216,7 @@
         <v>55000</v>
       </c>
       <c r="Q70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="R70" s="3">
         <v>58000</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,32 +4292,35 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-155000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3045000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2664000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2416000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>24</v>
       </c>
@@ -4156,32 +4330,35 @@
       <c r="M72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-519000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-567000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-768000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,32 +4540,35 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1433000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1474000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1146000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1613000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2959000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2726000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4392,32 +4578,35 @@
       <c r="M76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76" s="3">
         <v>5149000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5213000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4855000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5890000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5682000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5424000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5057000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50000</v>
       </c>
-      <c r="G81" s="3">
-        <v>60000</v>
-      </c>
       <c r="H81" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I81" s="3">
         <v>138000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81" s="3">
         <v>120000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-727000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>101000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>194000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>305000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E83" s="3">
         <v>60000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>128000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O83" s="3">
         <v>144000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>142000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>141000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>140000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>133000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1132000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>283000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-265000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-295000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="I89" s="3">
         <v>312000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>118000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89" s="3">
         <v>176000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-436000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>612000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>172000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>217000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>870000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-82000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-81000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" s="3">
         <v>-171000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-131000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-126000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-206000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>58000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>78000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>180000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O94" s="3">
         <v>117000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>41000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>69000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1110000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-165000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5352,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-30000</v>
@@ -5361,22 +5595,25 @@
         <v>-30000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-44000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-43000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-45000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-228000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E100" s="3">
         <v>9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>731000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1374000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-227000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-78000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-410000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O100" s="3">
         <v>-35000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-542000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-860000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-43000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-754000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1000</v>
       </c>
       <c r="J101" s="3">
         <v>-1000</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>207000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>523000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1156000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O102" s="3">
         <v>252000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-945000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>335000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-768000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>690000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1462000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1415000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2798000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1611000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1708000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1805000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1923000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1841000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1809000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1882000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3573000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3445000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3271000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3236000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3261000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3192000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12394000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1431000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1248000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1218000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2396000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1345000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1522000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1543000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1671000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1596000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1597000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3">
         <v>2903000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2768000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2520000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2626000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2583000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2492000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9811000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E10" s="3">
         <v>244000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>214000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>197000</v>
       </c>
-      <c r="G10" s="3">
-        <v>402000</v>
-      </c>
       <c r="H10" s="3">
+        <v>136000</v>
+      </c>
+      <c r="I10" s="3">
         <v>266000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>186000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>262000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>252000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>245000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>212000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3">
         <v>670000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>677000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>751000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>610000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>678000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2583000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
-        <v>19000</v>
-      </c>
       <c r="H12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3">
         <v>11000</v>
       </c>
       <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="3">
         <v>29000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>26000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>132000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>127000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
-        <v>58000</v>
-      </c>
       <c r="H14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="I14" s="3">
         <v>-19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-104000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>766000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>73000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>155000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E15" s="3">
         <v>63000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>60000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>63000</v>
       </c>
-      <c r="G15" s="3">
-        <v>128000</v>
-      </c>
       <c r="H15" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I15" s="3">
         <v>60000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>62000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>63000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>74000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="3">
         <v>144000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>142000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>141000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>140000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>137000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>133000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>535000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1562000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1508000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1351000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2736000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1477000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1669000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1761000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1871000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1761000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1647000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="3">
         <v>3249000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3112000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3588000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2965000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2980000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2947000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11575000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="E18" s="3">
         <v>113000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64000</v>
       </c>
-      <c r="G18" s="3">
-        <v>62000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="I18" s="3">
         <v>134000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="3">
         <v>324000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>333000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-317000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>271000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>281000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>245000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>819000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,152 +1413,159 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-42000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="3">
         <v>-41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>171000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>469000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>94000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-448000</v>
+      </c>
+      <c r="E21" s="3">
         <v>154000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100000</v>
       </c>
-      <c r="G21" s="3">
-        <v>148000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I21" s="3">
         <v>168000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>107000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>157000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>241000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="3">
         <v>427000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>455000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-216000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>412000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>589000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>847000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2045000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>23000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22000</v>
       </c>
-      <c r="G22" s="3">
-        <v>75000</v>
-      </c>
       <c r="H22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="3">
         <v>35000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>29000</v>
       </c>
       <c r="J22" s="3">
         <v>29000</v>
@@ -1534,164 +1574,173 @@
         <v>29000</v>
       </c>
       <c r="L22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3">
         <v>89000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>114000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>98000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>183000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>230000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>499000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E23" s="3">
         <v>68000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-55000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="I23" s="3">
         <v>73000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>137000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="3">
         <v>194000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>199000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-455000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>172000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>269000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>484000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>414000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-117000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="3">
         <v>74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1476000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E26" s="3">
         <v>52000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="I26" s="3">
         <v>46000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>138000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="3">
         <v>120000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-455000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>119000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>212000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>322000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E27" s="3">
         <v>52000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="I27" s="3">
         <v>46000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>138000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="3">
         <v>120000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>142000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-455000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>194000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>305000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1976,18 +2037,18 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-272000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1995,13 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>121000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
-        <v>42000</v>
-      </c>
       <c r="H32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="3">
         <v>41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-171000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-469000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-94000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E33" s="3">
         <v>52000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="I33" s="3">
         <v>46000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>138000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="3">
         <v>120000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-727000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>194000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>305000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E35" s="3">
         <v>52000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="I35" s="3">
         <v>46000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>138000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="3">
         <v>120000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-727000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>194000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>305000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,35 +2573,36 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E41" s="3">
         <v>763000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>787000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>802000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>595000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>635000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2525,32 +2612,35 @@
       <c r="N41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="3">
         <v>1455000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2150000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1815000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1785000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1863000</v>
       </c>
       <c r="V41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,35 +2701,38 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="E43" s="3">
         <v>951000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>759000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>758000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>683000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>799000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>520000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>562000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2649,59 +2742,62 @@
       <c r="N43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="3">
         <v>1637000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1663000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1374000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1523000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1527000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1510000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1451000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1199000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1043000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>901000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>678000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>844000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>828000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>877000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2711,59 +2807,62 @@
       <c r="N44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="3">
         <v>2659000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2648000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2480000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2453000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2416000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2328000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2253000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E45" s="3">
         <v>45000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>635000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2773,59 +2872,62 @@
       <c r="N45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="3">
         <v>324000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>379000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>374000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>357000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>305000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>319000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>325000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3018000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2958000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2642000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2521000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2010000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2913000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1757000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1535000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2835,32 +2937,35 @@
       <c r="N46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="3">
         <v>6075000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5895000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6378000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6148000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6033000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6710000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5892000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2913,43 +3018,46 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>446000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1020000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2766000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2811000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2856000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2848000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2864000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2805000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2869000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2838000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>24</v>
       </c>
@@ -2959,59 +3067,62 @@
       <c r="N48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="3">
         <v>5582000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5628000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5594000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5526000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5507000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5473000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5499000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E49" s="3">
         <v>389000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>390000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>381000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>374000</v>
       </c>
       <c r="H49" s="3">
         <v>374000</v>
       </c>
       <c r="I49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="J49" s="3">
         <v>386000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>380000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3021,32 +3132,35 @@
       <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="3">
         <v>5481000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5563000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5522000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5246000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5215000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5170000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5148000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,35 +3286,38 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E52" s="3">
         <v>415000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>426000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>396000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>485000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>377000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>46000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3207,32 +3327,35 @@
       <c r="N52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="3">
         <v>1081000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1133000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1224000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2317000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2351000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2358000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2479000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,35 +3416,38 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6543000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6573000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6314000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6146000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5733000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6469000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5058000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4790000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3331,32 +3457,35 @@
       <c r="N54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O54" s="3">
-        <v>18219000</v>
+      <c r="O54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P54" s="3">
         <v>18219000</v>
       </c>
       <c r="Q54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="R54" s="3">
         <v>18718000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19237000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19106000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20157000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20038000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,35 +3533,36 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1216000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1106000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>836000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>683000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>938000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1061000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1056000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3441,32 +3572,35 @@
       <c r="N57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" s="3">
         <v>2024000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1874000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1839000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1656000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1667000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1597000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1744000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3482,12 +3616,12 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3503,59 +3637,62 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>48000</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>48000</v>
       </c>
       <c r="Q58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="R58" s="3">
         <v>38000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>47000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E59" s="3">
         <v>396000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>367000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>390000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>401000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>335000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>280000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>283000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3565,59 +3702,62 @@
       <c r="N59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="3">
         <v>905000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>880000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>947000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>966000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>943000</v>
       </c>
       <c r="T59" s="3">
         <v>943000</v>
       </c>
       <c r="U59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="V59" s="3">
         <v>965000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1612000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1473000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1226000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1084000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1279000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1341000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1339000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3627,58 +3767,61 @@
       <c r="N60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="3">
         <v>2977000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2802000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2824000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2677000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2658000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2587000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2749000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1592000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1278000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1277000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1276000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>250000</v>
       </c>
       <c r="J61" s="3">
         <v>250000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3690,58 +3833,61 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>6312000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6309000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6806000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6802000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6796000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8046000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8044000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1879000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2116000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2155000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2213000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2145000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>558000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>461000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3751,32 +3897,35 @@
       <c r="N62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="3">
         <v>3712000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3826000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4164000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3797000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3899000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4029000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4104000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,35 +4116,38 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4929000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5097000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4881000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4672000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4587000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4856000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2099000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2064000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>24</v>
       </c>
@@ -3999,32 +4157,35 @@
       <c r="N66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" s="3">
         <v>13015000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12951000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13808000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13289000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13366000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14675000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14923000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>55000</v>
@@ -4219,7 +4387,7 @@
         <v>55000</v>
       </c>
       <c r="R70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="S70" s="3">
         <v>58000</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,35 +4466,38 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-530000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-103000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-155000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3045000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2664000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2416000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>24</v>
       </c>
@@ -4333,32 +4507,35 @@
       <c r="N72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-519000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-567000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-768000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,35 +4726,38 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1476000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1433000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1474000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1146000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1613000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2959000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2726000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4581,32 +4767,35 @@
       <c r="N76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" s="3">
         <v>5149000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5213000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4855000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5890000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5682000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5424000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5057000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E81" s="3">
         <v>52000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="I81" s="3">
         <v>46000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>138000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P81" s="3">
         <v>120000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-727000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>194000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>305000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
-        <v>128000</v>
-      </c>
       <c r="H83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I83" s="3">
         <v>60000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P83" s="3">
         <v>144000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>142000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>141000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>140000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>133000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1132000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-294000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
-        <v>283000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-265000</v>
+        <v>240000</v>
       </c>
       <c r="H89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-260000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>312000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" s="3">
         <v>176000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-436000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>612000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>172000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>217000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>870000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-44000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-81000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-122000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P91" s="3">
         <v>-171000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-236000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-131000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-126000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-206000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82000</v>
       </c>
-      <c r="G94" s="3">
-        <v>58000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I94" s="3">
         <v>78000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>180000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P94" s="3">
         <v>117000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>41000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>69000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1110000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-165000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5589,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-30000</v>
@@ -5598,22 +5832,25 @@
         <v>-30000</v>
       </c>
       <c r="R96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-44000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-43000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-45000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-228000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>297000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
-        <v>731000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-643000</v>
+      </c>
+      <c r="I100" s="3">
         <v>1374000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-227000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-78000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-410000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="3">
         <v>-35000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-542000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-860000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-754000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5869,119 +6118,125 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>2000</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1000</v>
       </c>
       <c r="K101" s="3">
         <v>-1000</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>207000</v>
       </c>
-      <c r="G102" s="3">
-        <v>523000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="I102" s="3">
         <v>1156000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-35000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102" s="3">
         <v>252000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-945000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>335000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-768000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>690000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1890000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1801000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1675000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1462000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1415000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1187000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1611000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1708000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1805000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1923000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1841000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1809000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1882000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3573000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3445000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3271000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3236000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3261000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3192000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12394000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1676000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1567000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1431000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1248000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1218000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1051000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1345000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1522000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1543000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1671000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1596000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1597000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2903000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2768000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2520000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2626000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2583000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2492000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9811000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E10" s="3">
         <v>234000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>244000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>214000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>197000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>136000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>266000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>186000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>262000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>252000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>212000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="3">
         <v>670000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>677000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>751000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>610000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>678000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2583000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8000</v>
       </c>
       <c r="H12" s="3">
         <v>8000</v>
       </c>
       <c r="I12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="3">
         <v>11000</v>
       </c>
       <c r="K12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="3">
         <v>29000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>132000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>597000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>127000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>77000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>64000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-104000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>766000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>73000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>155000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E15" s="3">
         <v>62000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>63000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>60000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>63000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>60000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>62000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>63000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>74000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="3">
         <v>144000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>142000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>141000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>140000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>137000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>133000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>535000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2296000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1562000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1508000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1351000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1259000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1477000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1669000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1761000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1871000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1761000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1647000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3249000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3112000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3588000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2965000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2980000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2947000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11575000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-495000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>113000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-72000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>134000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="3">
         <v>324000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>333000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-317000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>271000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>281000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>245000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>819000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,152 +1457,158 @@
         <v>-15000</v>
       </c>
       <c r="E20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>171000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>469000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>94000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-448000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>154000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>168000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>157000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>241000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="3">
         <v>427000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>455000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-216000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>412000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>589000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>847000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2045000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>29000</v>
       </c>
       <c r="K22" s="3">
         <v>29000</v>
@@ -1577,170 +1617,179 @@
         <v>29000</v>
       </c>
       <c r="M22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="3">
         <v>89000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>114000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>98000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>183000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>230000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>499000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-535000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-128000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>137000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="3">
         <v>194000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>199000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-455000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>172000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>269000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>484000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>414000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-108000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-117000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1476000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-427000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-96000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>46000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>138000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="3">
         <v>120000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-455000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>119000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>212000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>322000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-427000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-96000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>138000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="3">
         <v>120000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-455000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>194000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>305000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2040,18 +2101,18 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-272000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2059,13 +2120,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>121000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>15000</v>
       </c>
       <c r="E32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="3">
         <v>22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="3">
         <v>41000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-171000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-469000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-94000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-427000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-96000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>138000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="3">
         <v>120000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-727000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>194000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>305000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-427000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-96000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>138000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="3">
         <v>120000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-727000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>194000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>305000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,38 +2660,39 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E41" s="3">
         <v>540000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>763000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>787000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>802000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>595000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>635000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2615,32 +2702,35 @@
       <c r="O41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1455000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1205000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2150000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1815000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1785000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>1863000</v>
       </c>
       <c r="W41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,38 +2794,41 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1018000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>951000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>759000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>758000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>683000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>799000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>520000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>562000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2745,62 +2838,65 @@
       <c r="O43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1637000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1663000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1374000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1523000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1527000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1510000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1451000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1397000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1199000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1043000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>901000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>678000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>844000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>828000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>877000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2810,62 +2906,65 @@
       <c r="O44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2659000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2648000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2480000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2453000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2416000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2328000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2253000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E45" s="3">
         <v>63000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>635000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2875,62 +2974,65 @@
       <c r="O45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="3">
         <v>324000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>379000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>374000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>357000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>305000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>319000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>325000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3018000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2958000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2642000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2521000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2010000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2913000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1757000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1535000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2940,32 +3042,35 @@
       <c r="O46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="3">
         <v>6075000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5895000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6378000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6148000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6033000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6710000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5892000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3021,46 +3126,49 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>446000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1020000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2746000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2766000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2811000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2856000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2848000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2864000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2805000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2869000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2838000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3070,62 +3178,65 @@
       <c r="O48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5582000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5628000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5594000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5526000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5507000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5473000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5499000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E49" s="3">
         <v>391000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>389000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>390000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>381000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>374000</v>
       </c>
       <c r="I49" s="3">
         <v>374000</v>
       </c>
       <c r="J49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="K49" s="3">
         <v>386000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>380000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3135,32 +3246,35 @@
       <c r="O49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5481000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5563000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5522000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5246000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5215000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5170000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5148000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,38 +3406,41 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E52" s="3">
         <v>368000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>415000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>426000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>396000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>485000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>377000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3330,32 +3450,35 @@
       <c r="O52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1081000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1133000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1224000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2317000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2351000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2358000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2479000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,38 +3542,41 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6496000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6543000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6573000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6314000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6146000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5733000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6469000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5058000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4790000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3460,32 +3586,35 @@
       <c r="O54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P54" s="3">
-        <v>18219000</v>
+      <c r="P54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q54" s="3">
         <v>18219000</v>
       </c>
       <c r="R54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="S54" s="3">
         <v>18718000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19237000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19106000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20157000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20038000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,38 +3664,39 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1427000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1216000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1106000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>836000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>683000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>938000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1061000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1056000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3575,32 +3706,35 @@
       <c r="O57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2024000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1874000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1839000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1656000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1667000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1597000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1744000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3619,12 +3753,12 @@
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3640,62 +3774,65 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>48000</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
         <v>48000</v>
       </c>
       <c r="R58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="S58" s="3">
         <v>38000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>47000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E59" s="3">
         <v>423000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>396000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>367000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>390000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>401000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>335000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>280000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3705,62 +3842,65 @@
       <c r="O59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="3">
         <v>905000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>880000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>947000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>966000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>943000</v>
       </c>
       <c r="U59" s="3">
         <v>943000</v>
       </c>
       <c r="V59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="W59" s="3">
         <v>965000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1850000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1612000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1473000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1226000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1084000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1279000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1341000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1339000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3770,32 +3910,35 @@
       <c r="O60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2977000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2802000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2824000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2677000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2658000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2587000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2749000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,28 +3946,28 @@
         <v>1593000</v>
       </c>
       <c r="E61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1592000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1278000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1277000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1276000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>250000</v>
       </c>
       <c r="K61" s="3">
         <v>250000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3836,61 +3979,64 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>6312000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6309000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6806000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6802000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6796000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8046000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8044000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1472000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1879000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2116000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2155000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2213000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2145000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>558000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>461000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,32 +4046,35 @@
       <c r="O62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3712000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3826000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4164000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3797000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3899000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4029000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4104000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,38 +4274,41 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4932000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4929000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5097000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4881000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4672000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4587000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4856000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2099000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2064000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4160,32 +4318,35 @@
       <c r="O66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="3">
         <v>13015000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12951000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13808000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13289000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13366000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14675000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14923000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>55000</v>
@@ -4390,7 +4558,7 @@
         <v>55000</v>
       </c>
       <c r="S70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="T70" s="3">
         <v>58000</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,38 +4640,41 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-530000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-103000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-155000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3045000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2664000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2416000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>24</v>
       </c>
@@ -4510,32 +4684,35 @@
       <c r="O72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-519000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-567000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-768000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,38 +4912,41 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1614000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1476000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1433000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1474000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1146000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1613000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2959000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2726000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4770,32 +4956,35 @@
       <c r="O76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76" s="3">
         <v>5149000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5213000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4855000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5890000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5682000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5424000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5057000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-427000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-96000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>138000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81" s="3">
         <v>120000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-727000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>194000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>305000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E83" s="3">
         <v>62000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83" s="3">
         <v>144000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>142000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>141000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>140000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>133000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1132000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-167000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-294000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>240000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-260000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>312000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q89" s="3">
         <v>176000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-436000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>612000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>172000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>217000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>870000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-82000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-81000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-122000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-117000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-236000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-131000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-126000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-206000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>78000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>180000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="3">
         <v>117000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>41000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>69000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1110000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-165000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5826,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-30000</v>
@@ -5835,22 +6069,25 @@
         <v>-30000</v>
       </c>
       <c r="S96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-44000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-43000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-45000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-228000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>297000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-643000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1374000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-227000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-78000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-410000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-542000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-860000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-43000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-754000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6121,122 +6370,128 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1000</v>
       </c>
       <c r="L101" s="3">
         <v>-1000</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-223000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>207000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-633000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1156000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q102" s="3">
         <v>252000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-945000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>335000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-768000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>690000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-56000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2138000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1890000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1801000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1675000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1462000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1415000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1187000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1611000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1708000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1805000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1923000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1841000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1809000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1882000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3573000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3445000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3271000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3236000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3261000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3192000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12394000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1676000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1567000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1431000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1248000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1218000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1051000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1345000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1522000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1543000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1671000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1596000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1597000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="3">
         <v>2903000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2768000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2520000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2626000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2583000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2492000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9811000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E10" s="3">
         <v>214000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>234000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>244000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>214000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>197000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>266000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>186000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>262000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>252000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>212000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="3">
         <v>670000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>677000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>751000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>610000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>678000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>700000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2583000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8000</v>
       </c>
       <c r="I12" s="3">
         <v>8000</v>
       </c>
       <c r="J12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="K12" s="3">
         <v>11000</v>
       </c>
       <c r="L12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M12" s="3">
         <v>9000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="3">
         <v>29000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>26000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>25000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>30000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>28000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>132000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>597000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>127000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>64000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-104000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>766000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>73000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>155000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E15" s="3">
         <v>61000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>63000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>68000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>60000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>62000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>63000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>63000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>74000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="3">
         <v>144000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>142000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>141000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>140000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>137000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>133000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>535000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1822000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2296000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1562000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1508000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1351000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1259000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1477000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1669000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1761000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1871000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1761000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1647000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="3">
         <v>3249000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3112000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3588000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2965000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2980000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2947000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11575000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E18" s="3">
         <v>68000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-495000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>113000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-72000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>134000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="3">
         <v>324000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>333000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-317000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>271000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>281000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>245000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>819000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1460,132 +1493,138 @@
         <v>-15000</v>
       </c>
       <c r="F20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="3">
         <v>-41000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>171000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>469000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>94000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E21" s="3">
         <v>114000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-448000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>154000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>168000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>112000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>157000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>241000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="3">
         <v>427000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>455000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-216000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>412000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>589000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>847000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2045000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1593,25 +1632,25 @@
         <v>26000</v>
       </c>
       <c r="E22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>29000</v>
       </c>
       <c r="L22" s="3">
         <v>29000</v>
@@ -1620,176 +1659,185 @@
         <v>29000</v>
       </c>
       <c r="N22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="O22" s="3">
         <v>28000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="3">
         <v>89000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>114000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>98000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>183000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>230000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>499000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-535000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-128000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>137000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="3">
         <v>194000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>199000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-455000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>172000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>269000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>484000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>414000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-108000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-117000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>53000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>162000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1476000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E26" s="3">
         <v>16000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-427000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-96000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>138000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>99000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="3">
         <v>120000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-455000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>119000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>212000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>322000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-427000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-96000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="3">
         <v>120000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>142000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-455000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>194000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>305000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2104,18 +2164,18 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-272000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2123,13 +2183,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>121000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,132 +2345,138 @@
         <v>15000</v>
       </c>
       <c r="F32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="3">
         <v>22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="3">
         <v>41000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-171000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-469000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-94000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-427000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-96000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="3">
         <v>120000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-727000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>194000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>305000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-427000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-96000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="3">
         <v>120000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-727000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>194000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>305000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,41 +2746,42 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E41" s="3">
         <v>349000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>540000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>763000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>787000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>802000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>595000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>635000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2705,32 +2791,35 @@
       <c r="P41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="3">
         <v>1455000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1205000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2150000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1815000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1785000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1863000</v>
       </c>
       <c r="X41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,41 +2886,44 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1074000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1018000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>951000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>759000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>758000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>683000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>799000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>520000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2841,65 +2933,68 @@
       <c r="P43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="3">
         <v>1637000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1663000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1374000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1523000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1527000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1510000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1451000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1525000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1397000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1199000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1043000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>901000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>678000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>844000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>828000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>877000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2909,65 +3004,68 @@
       <c r="P44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="3">
         <v>2659000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2648000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2480000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2453000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2416000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2328000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2253000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E45" s="3">
         <v>61000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>53000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>54000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>635000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2977,65 +3075,68 @@
       <c r="P45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="3">
         <v>324000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>379000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>374000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>357000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>305000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>319000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>325000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3168000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3009000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3018000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2958000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2642000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2521000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2010000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2913000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1757000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1535000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3045,32 +3146,35 @@
       <c r="P46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="3">
         <v>6075000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5895000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6378000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6148000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6033000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6710000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5892000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3129,49 +3233,52 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>446000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1020000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2746000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2766000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2811000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2856000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2848000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2864000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2805000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2869000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2838000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3181,65 +3288,68 @@
       <c r="P48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="3">
         <v>5582000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5628000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5594000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5526000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5507000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5473000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5499000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E49" s="3">
         <v>388000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>391000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>389000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>390000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>381000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>374000</v>
       </c>
       <c r="J49" s="3">
         <v>374000</v>
       </c>
       <c r="K49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="L49" s="3">
         <v>386000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>380000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3249,32 +3359,35 @@
       <c r="P49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="3">
         <v>5481000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5563000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5522000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5246000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5215000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5170000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5148000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,41 +3525,44 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E52" s="3">
         <v>353000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>368000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>415000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>426000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>396000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>485000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>377000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3453,32 +3572,35 @@
       <c r="P52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="3">
         <v>1081000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1133000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1224000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2317000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2351000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2358000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2479000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,41 +3667,44 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6580000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6496000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6543000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6573000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6314000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6146000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5733000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6469000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5058000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4790000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3589,32 +3714,35 @@
       <c r="P54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q54" s="3">
-        <v>18219000</v>
+      <c r="Q54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R54" s="3">
         <v>18219000</v>
       </c>
       <c r="S54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="T54" s="3">
         <v>18718000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19237000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19106000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20157000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20038000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,41 +3794,42 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1489000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1427000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1216000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1106000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>836000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>683000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>938000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1061000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1056000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3709,32 +3839,35 @@
       <c r="P57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" s="3">
         <v>2024000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1874000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1839000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1656000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1667000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1597000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1744000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3756,12 +3889,12 @@
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3777,65 +3910,68 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>48000</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
         <v>48000</v>
       </c>
       <c r="S58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="T58" s="3">
         <v>38000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>55000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>48000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>47000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>40000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E59" s="3">
         <v>425000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>423000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>396000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>367000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>390000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>401000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>335000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>280000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3845,65 +3981,68 @@
       <c r="P59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="3">
         <v>905000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>880000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>947000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>966000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>943000</v>
       </c>
       <c r="V59" s="3">
         <v>943000</v>
       </c>
       <c r="W59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="X59" s="3">
         <v>965000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2063000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1914000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1850000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1612000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1473000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1226000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1084000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1279000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1341000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1339000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3913,64 +4052,67 @@
       <c r="P60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" s="3">
         <v>2977000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2802000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2824000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2677000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2658000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2587000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2749000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1593000</v>
+        <v>1594000</v>
       </c>
       <c r="E61" s="3">
         <v>1593000</v>
       </c>
       <c r="F61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1592000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1278000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1277000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1276000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>250000</v>
       </c>
       <c r="L61" s="3">
         <v>250000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3982,64 +4124,67 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>6312000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6309000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6806000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6802000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6796000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8046000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8044000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1411000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1472000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1879000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2116000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2155000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2213000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2145000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>558000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>461000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4049,32 +4194,35 @@
       <c r="P62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="3">
         <v>3712000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3826000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4164000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3797000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3899000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4029000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4104000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,41 +4431,44 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5035000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4932000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4929000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5097000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4881000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4672000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4587000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4856000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2099000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2064000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4321,32 +4478,35 @@
       <c r="P66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" s="3">
         <v>13015000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12951000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13808000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13289000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13366000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14675000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14923000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>55000</v>
@@ -4561,7 +4728,7 @@
         <v>55000</v>
       </c>
       <c r="T70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="U70" s="3">
         <v>58000</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,41 +4813,44 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-514000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-530000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-103000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-155000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-92000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3045000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2664000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2416000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>24</v>
       </c>
@@ -4687,32 +4860,35 @@
       <c r="P72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-519000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-567000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-768000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,41 +5097,44 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1564000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1614000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1476000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1433000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1474000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1146000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1613000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2959000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2726000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>24</v>
       </c>
@@ -4959,32 +5144,35 @@
       <c r="P76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" s="3">
         <v>5149000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5213000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4855000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5890000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5682000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5424000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5057000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-427000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-96000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="3">
         <v>120000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-727000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>194000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>305000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E83" s="3">
         <v>61000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="3">
         <v>144000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>141000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>140000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>137000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>133000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1132000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-167000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-294000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>240000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-260000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>312000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>197000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="3">
         <v>176000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-436000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>612000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>172000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>217000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>870000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-82000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-81000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="3">
         <v>-171000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-117000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-236000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-131000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-126000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-206000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>78000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>180000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94" s="3">
         <v>117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>41000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>69000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1110000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-165000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6063,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-30000</v>
@@ -6072,22 +6305,25 @@
         <v>-30000</v>
       </c>
       <c r="T96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-44000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-43000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-45000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-228000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,81 +6532,87 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-98000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>297000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-643000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1374000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-227000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-78000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-410000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R100" s="3">
         <v>-35000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-542000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-860000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-43000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-754000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6373,125 +6621,131 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>2000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1000</v>
       </c>
       <c r="M101" s="3">
         <v>-1000</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-191000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-223000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>207000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-633000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1156000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R102" s="3">
         <v>252000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-945000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>335000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-768000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>690000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-56000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2138000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1890000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1801000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1675000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1462000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1415000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1187000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1611000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1708000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1805000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1923000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1841000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1809000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1882000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3573000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3445000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3271000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3236000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3261000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3192000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12394000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1956000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1899000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1676000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1567000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1431000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1248000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1218000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1051000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1345000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1522000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1543000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1671000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1596000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="3">
         <v>2903000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2768000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2520000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2626000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2583000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2492000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9811000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E10" s="3">
         <v>239000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>214000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>234000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>244000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>214000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>266000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>186000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>262000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>252000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>245000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>212000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3">
         <v>670000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>677000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>751000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>610000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>678000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2583000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,70 +1027,73 @@
         <v>9000</v>
       </c>
       <c r="E12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8000</v>
       </c>
       <c r="J12" s="3">
         <v>8000</v>
       </c>
       <c r="K12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L12" s="3">
         <v>11000</v>
       </c>
       <c r="M12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3">
         <v>29000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>26000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>25000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>30000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>132000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>77000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>597000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>127000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>64000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>766000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>73000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>155000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E15" s="3">
         <v>67000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>61000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>62000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>63000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>60000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>68000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>62000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>63000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>63000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>74000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3">
         <v>144000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>142000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>141000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>140000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>137000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>133000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>535000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2095000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2116000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1822000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2296000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1562000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1508000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1351000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1259000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1477000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1669000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1761000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1871000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1761000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1647000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="3">
         <v>3249000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3112000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3588000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2965000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2980000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2947000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11575000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E18" s="3">
         <v>22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-495000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>113000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-72000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="3">
         <v>324000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>333000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-317000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>271000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>281000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>245000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>819000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15000</v>
+        <v>-17000</v>
       </c>
       <c r="E20" s="3">
         <v>-15000</v>
@@ -1496,164 +1530,170 @@
         <v>-15000</v>
       </c>
       <c r="G20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="3">
         <v>-41000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-40000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>171000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>469000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>94000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E21" s="3">
         <v>74000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-448000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>154000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>107000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>157000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>241000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="3">
         <v>427000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>455000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-216000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>412000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>589000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>847000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2045000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="3">
         <v>26000</v>
       </c>
       <c r="F22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>29000</v>
       </c>
       <c r="M22" s="3">
         <v>29000</v>
@@ -1662,182 +1702,191 @@
         <v>29000</v>
       </c>
       <c r="O22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="3">
         <v>89000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>114000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>98000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>183000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>230000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>499000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-535000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-68000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-128000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>137000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="3">
         <v>194000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>199000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-455000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>172000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>269000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>484000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>414000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-108000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-117000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>56000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>53000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>162000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1476000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-427000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-96000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>138000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>99000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="3">
         <v>120000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-455000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>119000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>212000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>322000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-427000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-64000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-96000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="3">
         <v>120000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>142000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-455000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>194000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>305000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,18 +2228,18 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-272000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2186,13 +2247,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>121000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="E32" s="3">
         <v>15000</v>
@@ -2348,135 +2418,141 @@
         <v>15000</v>
       </c>
       <c r="G32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H32" s="3">
         <v>22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="3">
         <v>41000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>40000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-171000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-469000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-427000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-64000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-96000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>138000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="3">
         <v>120000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>142000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-727000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>194000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>305000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-427000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-64000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-96000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>138000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="3">
         <v>120000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>142000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-727000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>194000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>305000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,44 +2833,45 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E41" s="3">
         <v>335000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>349000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>540000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>763000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>787000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>802000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>595000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>635000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2794,32 +2881,35 @@
       <c r="Q41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="3">
         <v>1455000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1205000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2150000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1815000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1785000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="X41" s="3">
-        <v>1863000</v>
       </c>
       <c r="Y41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,44 +2979,47 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1148000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1074000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1018000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>951000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>759000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>758000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>683000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>799000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>520000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>562000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2936,68 +3029,71 @@
       <c r="Q43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="3">
         <v>1637000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1663000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1374000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1523000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1527000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1510000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1451000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1833000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1630000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1525000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1397000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1199000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1043000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>901000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>678000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>844000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>828000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>877000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>24</v>
       </c>
@@ -3007,68 +3103,71 @@
       <c r="Q44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="3">
         <v>2659000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2648000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2480000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2453000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2416000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2328000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2253000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E45" s="3">
         <v>55000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>53000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>635000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3078,68 +3177,71 @@
       <c r="Q45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="3">
         <v>324000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>379000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>374000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>357000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>305000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>319000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>325000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3369000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3168000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3009000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3018000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2958000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2642000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2521000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2010000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2913000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1757000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1535000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3149,32 +3251,35 @@
       <c r="Q46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="3">
         <v>6075000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5895000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6378000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6148000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6033000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6710000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5892000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3236,52 +3341,55 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>446000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1020000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2756000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2773000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2746000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2766000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2811000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2856000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2848000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2805000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2869000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2838000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3291,68 +3399,71 @@
       <c r="Q48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="3">
         <v>5582000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5628000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5594000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5526000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5507000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5473000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5499000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E49" s="3">
         <v>322000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>388000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>391000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>389000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>390000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>381000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>374000</v>
       </c>
       <c r="K49" s="3">
         <v>374000</v>
       </c>
       <c r="L49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="M49" s="3">
         <v>386000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>380000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3362,32 +3473,35 @@
       <c r="Q49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="3">
         <v>5481000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5563000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5522000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5246000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5215000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5170000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5148000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,44 +3645,47 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E52" s="3">
         <v>317000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>353000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>368000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>415000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>426000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>396000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>485000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>377000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3575,32 +3695,35 @@
       <c r="Q52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="3">
         <v>1081000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1133000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1224000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2317000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2351000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2358000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2479000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,44 +3793,47 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6768000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6580000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6496000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6543000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6573000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6314000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6146000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5733000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6469000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5058000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4790000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3717,32 +3843,35 @@
       <c r="Q54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R54" s="3">
-        <v>18219000</v>
+      <c r="R54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S54" s="3">
         <v>18219000</v>
       </c>
       <c r="T54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="U54" s="3">
         <v>18718000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19237000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19106000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20157000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20038000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,44 +3925,45 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1718000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1489000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1427000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1216000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1106000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>836000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>683000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>938000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1061000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1056000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3842,37 +3973,40 @@
       <c r="Q57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S57" s="3">
         <v>2024000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1874000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1839000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1656000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1667000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1597000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1744000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
+      <c r="D58" s="3">
+        <v>100000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
@@ -3892,12 +4026,12 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
@@ -3913,68 +4047,71 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>48000</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>48000</v>
       </c>
       <c r="T58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="U58" s="3">
         <v>38000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>55000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>48000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>47000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>40000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E59" s="3">
         <v>345000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>425000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>423000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>396000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>367000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>390000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>401000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>280000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3984,68 +4121,71 @@
       <c r="Q59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="3">
         <v>905000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>880000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>947000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>966000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>943000</v>
       </c>
       <c r="W59" s="3">
         <v>943000</v>
       </c>
       <c r="X59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>965000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2063000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1914000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1850000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1612000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1473000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1226000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1084000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1279000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1341000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1339000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>24</v>
       </c>
@@ -4055,67 +4195,70 @@
       <c r="Q60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" s="3">
         <v>2977000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2802000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2824000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2677000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2658000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2587000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2749000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1594000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1593000</v>
       </c>
       <c r="F61" s="3">
         <v>1593000</v>
       </c>
       <c r="G61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1592000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1278000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1277000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1276000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>250000</v>
       </c>
       <c r="M61" s="3">
         <v>250000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4127,67 +4270,70 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>6312000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6309000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6806000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6802000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6796000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8046000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8044000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1288000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1364000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1411000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1472000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1879000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2116000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2155000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2213000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2145000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>558000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>461000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4197,32 +4343,35 @@
       <c r="Q62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="3">
         <v>3712000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3826000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4164000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3797000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3899000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4029000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4104000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,44 +4589,47 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5221000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5035000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4932000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4929000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5097000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4881000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4672000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4587000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4856000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2099000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2064000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4481,32 +4639,35 @@
       <c r="Q66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" s="3">
         <v>13015000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12951000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13808000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13289000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13366000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14675000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14923000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4722,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>55000</v>
@@ -4731,7 +4899,7 @@
         <v>55000</v>
       </c>
       <c r="U70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="V70" s="3">
         <v>58000</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,44 +4987,47 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-510000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-552000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-514000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-530000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-103000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-155000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-92000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3045000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2664000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2416000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>24</v>
       </c>
@@ -4863,32 +5037,35 @@
       <c r="Q72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-519000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-567000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-768000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,44 +5283,47 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1547000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1545000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1564000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1614000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1476000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1433000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1474000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1146000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1613000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2959000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2726000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>24</v>
       </c>
@@ -5147,32 +5333,35 @@
       <c r="Q76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S76" s="3">
         <v>5149000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5213000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4855000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5890000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5682000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5424000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5057000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-427000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-64000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-96000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>138000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S81" s="3">
         <v>120000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>142000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-727000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>194000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>305000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E83" s="3">
         <v>67000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>62000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>68000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S83" s="3">
         <v>144000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>142000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>141000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>140000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>137000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>133000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1132000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E89" s="3">
         <v>96000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-167000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-294000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>240000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-260000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>312000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>118000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>197000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S89" s="3">
         <v>176000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-436000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>612000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>172000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>217000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>870000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-51000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-82000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-81000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" s="3">
         <v>-171000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-117000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-236000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-131000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-126000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-206000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>78000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>180000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S94" s="3">
         <v>117000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>29000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>41000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>100000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>69000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1110000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-165000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6299,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-30000</v>
@@ -6308,22 +6542,25 @@
         <v>-30000</v>
       </c>
       <c r="U96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-44000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-43000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-45000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-228000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,88 +6778,94 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-98000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>297000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-643000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1374000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-227000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-78000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-410000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S100" s="3">
         <v>-35000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-542000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-860000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-43000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-754000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -6624,128 +6873,134 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>2000</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1000</v>
       </c>
       <c r="N101" s="3">
         <v>-1000</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-191000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-223000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>207000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-633000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1156000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-35000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S102" s="3">
         <v>252000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-945000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>335000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-768000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>690000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2548000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2191000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2138000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1890000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1801000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1675000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1462000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1415000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1187000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1611000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1708000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1805000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1923000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1841000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1809000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1882000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3573000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3445000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3271000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3236000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3261000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3192000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12394000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2258000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1956000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1899000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1676000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1567000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1431000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1248000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1218000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1051000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1345000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1522000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1543000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1671000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1596000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1597000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="3">
         <v>2903000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2768000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2520000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2626000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2583000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2492000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9811000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E10" s="3">
         <v>235000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>239000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>214000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>234000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>244000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>214000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>197000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>266000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>186000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>262000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>252000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>245000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>212000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="3">
         <v>670000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>677000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>751000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>610000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>678000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2583000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,70 +1044,73 @@
         <v>9000</v>
       </c>
       <c r="F12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8000</v>
       </c>
       <c r="K12" s="3">
         <v>8000</v>
       </c>
       <c r="L12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M12" s="3">
         <v>11000</v>
       </c>
       <c r="N12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="3">
         <v>29000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>25000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>30000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>132000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>77000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>597000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>127000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>64000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-104000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="3">
         <v>15000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>766000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>26000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>73000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>155000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E15" s="3">
         <v>60000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>67000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>62000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>60000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>68000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>62000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>63000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>63000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>74000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="3">
         <v>144000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>142000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>141000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>140000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>137000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>133000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>535000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2095000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2116000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1822000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2296000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1562000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1508000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1351000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1259000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1477000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1669000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1761000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1871000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1761000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1647000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="3">
         <v>3249000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3112000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3588000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2965000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2980000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2947000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11575000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E18" s="3">
         <v>96000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-495000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>113000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-72000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="3">
         <v>324000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>333000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-317000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>271000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>281000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>245000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>819000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,16 +1548,17 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-15000</v>
       </c>
       <c r="F20" s="3">
         <v>-15000</v>
@@ -1533,170 +1567,176 @@
         <v>-15000</v>
       </c>
       <c r="H20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="3">
         <v>-41000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-40000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>171000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>469000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>94000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E21" s="3">
         <v>139000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-448000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>154000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>157000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>241000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="3">
         <v>427000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>455000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-216000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>412000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>589000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>847000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2045000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>26000</v>
       </c>
       <c r="F22" s="3">
         <v>26000</v>
       </c>
       <c r="G22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H22" s="3">
         <v>25000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>29000</v>
       </c>
       <c r="N22" s="3">
         <v>29000</v>
@@ -1705,188 +1745,197 @@
         <v>29000</v>
       </c>
       <c r="P22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>28000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="3">
         <v>89000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>114000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>98000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>183000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>230000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>499000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E23" s="3">
         <v>54000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-535000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-68000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-128000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>137000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="3">
         <v>194000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>199000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-455000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>172000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>269000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>484000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>414000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-108000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-117000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>56000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>53000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>162000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1476000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E26" s="3">
         <v>42000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-427000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-96000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>138000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="3">
         <v>120000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>143000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-455000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>119000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>212000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>322000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E27" s="3">
         <v>42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-427000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-96000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>138000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="3">
         <v>120000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>142000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-455000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>101000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>194000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>305000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2231,18 +2292,18 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-272000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2250,13 +2311,16 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>121000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,16 +2470,19 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>17000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>15000</v>
       </c>
       <c r="F32" s="3">
         <v>15000</v>
@@ -2421,138 +2491,144 @@
         <v>15000</v>
       </c>
       <c r="H32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I32" s="3">
         <v>22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" s="3">
         <v>41000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>40000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-171000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-469000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-94000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E33" s="3">
         <v>42000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-427000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>138000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>99000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="3">
         <v>120000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>142000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-727000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>101000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>194000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>305000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E35" s="3">
         <v>42000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-427000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>138000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>99000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="3">
         <v>120000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>142000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-727000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>101000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>194000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>305000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,47 +2920,48 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E41" s="3">
         <v>210000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>335000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>349000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>540000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>763000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>787000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>802000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>595000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>635000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2884,32 +2971,35 @@
       <c r="R41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" s="3">
         <v>1455000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1205000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2150000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1815000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1785000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>1863000</v>
       </c>
       <c r="Z41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,47 +3072,50 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1254000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1148000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1074000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1018000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>951000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>759000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>758000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>683000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>799000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>520000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>562000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3032,71 +3125,74 @@
       <c r="R43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="3">
         <v>1637000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1663000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1374000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1523000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1527000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1510000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1451000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1910000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1833000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1630000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1525000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1397000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1199000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1043000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>901000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>678000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>844000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>828000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>877000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>24</v>
       </c>
@@ -3106,71 +3202,74 @@
       <c r="R44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="3">
         <v>2659000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2648000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2480000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2453000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2416000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2328000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2253000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>635000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3180,71 +3279,74 @@
       <c r="R45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="3">
         <v>324000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>379000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>374000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>357000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>305000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>319000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>325000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3369000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3168000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3009000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3018000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2958000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2642000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2521000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2010000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2913000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1757000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1535000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3254,32 +3356,35 @@
       <c r="R46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="3">
         <v>6075000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5895000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6378000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6148000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6033000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5892000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3344,55 +3449,58 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>446000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1020000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2708000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2756000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2773000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2746000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2766000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2811000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2856000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2848000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2864000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2805000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2869000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2838000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3402,71 +3510,74 @@
       <c r="R48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" s="3">
         <v>5582000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5628000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5594000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5526000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5507000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5473000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5499000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E49" s="3">
         <v>319000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>322000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>388000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>391000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>389000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>390000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>381000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>374000</v>
       </c>
       <c r="L49" s="3">
         <v>374000</v>
       </c>
       <c r="M49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="N49" s="3">
         <v>386000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>380000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3476,32 +3587,35 @@
       <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" s="3">
         <v>5481000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5563000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5522000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5246000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5215000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5170000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5148000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,47 +3765,50 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E52" s="3">
         <v>324000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>317000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>353000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>368000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>415000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>426000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>396000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>485000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>377000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3698,32 +3818,35 @@
       <c r="R52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T52" s="3">
         <v>1081000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1133000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1224000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2317000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2351000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2358000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2479000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,47 +3919,50 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6913000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6768000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6580000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6496000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6543000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6573000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6314000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6146000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5733000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6469000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5058000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4790000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3846,32 +3972,35 @@
       <c r="R54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S54" s="3">
-        <v>18219000</v>
+      <c r="S54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T54" s="3">
         <v>18219000</v>
       </c>
       <c r="U54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="V54" s="3">
         <v>18718000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19237000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19106000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20157000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20038000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,47 +4056,48 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1842000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1781000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1718000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1489000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1427000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1216000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1106000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>836000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>683000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>938000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1061000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1056000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>24</v>
       </c>
@@ -3976,41 +4107,44 @@
       <c r="R57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T57" s="3">
         <v>2024000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1874000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1839000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1656000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1667000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1597000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1744000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="3">
         <v>100000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4029,12 +4163,12 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4050,71 +4184,74 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>48000</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>48000</v>
       </c>
       <c r="U58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="V58" s="3">
         <v>38000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>55000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>48000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>47000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>40000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E59" s="3">
         <v>443000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>345000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>425000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>423000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>396000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>367000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>390000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>401000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>335000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>280000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>24</v>
       </c>
@@ -4124,71 +4261,74 @@
       <c r="R59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" s="3">
         <v>905000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>880000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>947000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>966000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>943000</v>
       </c>
       <c r="X59" s="3">
         <v>943000</v>
       </c>
       <c r="Y59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>965000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2324000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2063000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1914000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1850000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1612000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1473000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1226000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1084000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1279000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1341000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1339000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>24</v>
       </c>
@@ -4198,70 +4338,73 @@
       <c r="R60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T60" s="3">
         <v>2977000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2802000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2824000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2677000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2658000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2587000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2749000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1595000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1594000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1593000</v>
       </c>
       <c r="G61" s="3">
         <v>1593000</v>
       </c>
       <c r="H61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="I61" s="3">
         <v>1592000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1278000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1277000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1276000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>250000</v>
       </c>
       <c r="N61" s="3">
         <v>250000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4273,70 +4416,73 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>6312000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6309000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6806000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6802000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6796000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8046000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8044000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1288000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1364000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1411000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1472000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1879000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2116000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2155000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2213000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2145000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>558000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>461000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4346,32 +4492,35 @@
       <c r="R62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T62" s="3">
         <v>3712000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3826000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4164000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3797000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3899000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4029000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4104000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,47 +4747,50 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5120000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5221000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5035000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4932000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4929000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5097000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4881000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4672000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4587000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4856000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2099000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2064000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4642,32 +4800,35 @@
       <c r="R66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T66" s="3">
         <v>13015000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12951000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13808000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13289000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13366000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14675000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14923000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4893,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>55000</v>
@@ -4902,7 +5070,7 @@
         <v>55000</v>
       </c>
       <c r="V70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="W70" s="3">
         <v>58000</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,47 +5161,50 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-510000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-552000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-514000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-530000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-103000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-155000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3045000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2664000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2416000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>24</v>
       </c>
@@ -5040,32 +5214,35 @@
       <c r="R72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-519000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-567000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-768000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,47 +5469,50 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1547000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1545000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1564000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1614000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1476000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1433000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1474000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1146000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1613000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2959000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2726000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>24</v>
       </c>
@@ -5336,32 +5522,35 @@
       <c r="R76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T76" s="3">
         <v>5149000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5213000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4855000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5890000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5682000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5424000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5057000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E81" s="3">
         <v>42000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-427000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>138000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>99000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T81" s="3">
         <v>120000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>142000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-727000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>101000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>194000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>305000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E83" s="3">
         <v>60000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>62000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>74000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T83" s="3">
         <v>144000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>142000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>141000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>140000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>137000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>133000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1132000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-103000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-167000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-294000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>240000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-260000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>312000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>118000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>197000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T89" s="3">
         <v>176000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-436000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>612000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>172000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>217000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>870000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-82000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-81000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-122000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T91" s="3">
         <v>-171000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-117000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-236000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-131000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-126000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-206000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>180000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T94" s="3">
         <v>117000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>29000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>41000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>100000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>69000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1110000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-165000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6536,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-30000</v>
@@ -6545,22 +6779,25 @@
         <v>-30000</v>
       </c>
       <c r="V96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-44000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-43000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-228000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,94 +7024,100 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>72000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-98000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>297000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-643000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1374000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-227000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-78000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-410000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T100" s="3">
         <v>-35000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-542000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-860000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-754000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6876,131 +7125,137 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1000</v>
       </c>
       <c r="O101" s="3">
         <v>-1000</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-125000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-191000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-223000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>207000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-633000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1156000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T102" s="3">
         <v>252000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-945000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>335000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-768000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>690000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2548000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2191000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2138000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1890000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1801000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1675000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1462000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1415000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1187000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1611000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1708000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1805000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1923000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1841000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1809000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1882000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3573000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3445000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3271000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3236000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3261000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3192000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12394000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2258000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1956000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1899000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1676000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1567000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1431000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1248000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1218000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1051000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1345000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1522000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1543000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1671000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1596000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1597000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="3">
         <v>2903000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2768000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2520000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2626000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2583000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2492000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9811000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E10" s="3">
         <v>290000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>235000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>239000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>214000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>234000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>244000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>214000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>197000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>266000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>186000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>262000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>252000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>245000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>212000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="3">
         <v>670000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>677000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>751000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>610000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>678000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>700000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2583000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,70 +1061,73 @@
         <v>9000</v>
       </c>
       <c r="G12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8000</v>
       </c>
       <c r="L12" s="3">
         <v>8000</v>
       </c>
       <c r="M12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N12" s="3">
         <v>11000</v>
       </c>
       <c r="O12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="3">
         <v>29000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>25000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>30000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>28000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>132000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>77000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>597000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>127000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>64000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-104000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="3">
         <v>15000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>766000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>26000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>73000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>155000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E15" s="3">
         <v>62000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>60000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>67000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>61000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>62000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>60000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>68000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>62000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>63000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>64000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>63000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>74000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="3">
         <v>144000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>142000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>141000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>140000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>137000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>133000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>535000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2404000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2095000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2116000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1822000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2296000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1562000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1508000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1351000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1259000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1477000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1669000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1761000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1871000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1761000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1647000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="3">
         <v>3249000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3112000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3588000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2965000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2980000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2947000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11575000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>144000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-495000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>113000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-72000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>134000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>162000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="3">
         <v>324000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>333000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-317000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>271000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>281000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>245000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>819000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,19 +1582,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-15000</v>
       </c>
       <c r="G20" s="3">
         <v>-15000</v>
@@ -1570,176 +1604,182 @@
         <v>-15000</v>
       </c>
       <c r="I20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="3">
         <v>-41000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-40000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>171000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>469000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>94000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>241000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>139000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-448000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>154000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>157000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>241000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="3">
         <v>427000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>455000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-216000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>412000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>589000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>847000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2045000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>26000</v>
       </c>
       <c r="G22" s="3">
         <v>26000</v>
       </c>
       <c r="H22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>29000</v>
       </c>
       <c r="O22" s="3">
         <v>29000</v>
@@ -1748,194 +1788,203 @@
         <v>29000</v>
       </c>
       <c r="Q22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R22" s="3">
         <v>28000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="3">
         <v>89000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>114000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>98000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>183000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>230000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>499000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E23" s="3">
         <v>153000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-535000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-128000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>137000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="3">
         <v>194000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>199000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-455000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>172000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>269000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>484000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>414000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-108000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-117000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="3">
         <v>74000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>56000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>53000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>162000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1476000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E26" s="3">
         <v>115000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-427000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-96000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>138000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="3">
         <v>120000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>143000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-455000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>119000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>212000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>322000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E27" s="3">
         <v>114000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-427000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-96000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="3">
         <v>120000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>142000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-455000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>194000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>305000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2295,18 +2356,18 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-272000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2314,13 +2375,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>121000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,19 +2540,22 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>15000</v>
       </c>
       <c r="G32" s="3">
         <v>15000</v>
@@ -2494,141 +2564,147 @@
         <v>15000</v>
       </c>
       <c r="I32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J32" s="3">
         <v>22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" s="3">
         <v>41000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>40000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-469000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-94000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E33" s="3">
         <v>114000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-427000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-96000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>138000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="3">
         <v>120000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>142000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-727000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>194000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>305000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E35" s="3">
         <v>114000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-427000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-96000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>138000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="3">
         <v>120000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>142000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-727000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>194000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>305000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,50 +3007,51 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E41" s="3">
         <v>252000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>210000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>335000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>349000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>540000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>763000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>787000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>802000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>595000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>635000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2974,32 +3061,35 @@
       <c r="S41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="3">
         <v>1455000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1205000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2150000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1815000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1785000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>1863000</v>
       </c>
       <c r="AA41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,50 +3165,53 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1016000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1256000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1254000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1148000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1074000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1018000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>951000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>759000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>758000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>683000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>799000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>520000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>562000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3128,74 +3221,77 @@
       <c r="S43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="3">
         <v>1637000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1663000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1374000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1523000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1527000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1510000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1451000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1910000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1833000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1630000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1525000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1397000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1199000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1043000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>901000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>678000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>844000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>828000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>877000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>24</v>
       </c>
@@ -3205,74 +3301,77 @@
       <c r="S44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="3">
         <v>2659000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2648000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2480000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2453000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2416000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2328000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2253000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E45" s="3">
         <v>256000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>53000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>635000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3282,74 +3381,77 @@
       <c r="S45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="3">
         <v>324000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>379000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>374000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>357000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>305000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>319000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>325000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3306000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3674000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3369000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3168000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3009000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3018000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2958000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2642000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2521000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2010000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2913000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1757000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1535000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3359,32 +3461,35 @@
       <c r="S46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" s="3">
         <v>6075000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5895000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6378000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6148000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6033000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6710000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5892000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3452,58 +3557,61 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>446000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1020000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2588000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2708000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2756000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2773000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2746000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2766000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2811000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2856000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2848000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2864000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2805000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2869000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2838000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3513,74 +3621,77 @@
       <c r="S48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" s="3">
         <v>5582000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5628000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5594000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5526000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5507000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5473000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5499000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E49" s="3">
         <v>308000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>319000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>322000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>388000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>391000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>389000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>390000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>381000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>374000</v>
       </c>
       <c r="M49" s="3">
         <v>374000</v>
       </c>
       <c r="N49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="O49" s="3">
         <v>386000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>380000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3590,32 +3701,35 @@
       <c r="S49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="3">
         <v>5481000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5563000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5522000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5246000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5215000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5170000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5148000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,50 +3885,53 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E52" s="3">
         <v>223000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>324000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>317000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>353000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>415000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>426000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>396000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>485000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>377000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3821,32 +3941,35 @@
       <c r="S52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52" s="3">
         <v>1081000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1133000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1224000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2317000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2351000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2358000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2479000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,50 +4045,53 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6422000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6913000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6768000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6580000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6496000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6543000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6573000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6314000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6146000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5733000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6469000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5058000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4790000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3975,32 +4101,35 @@
       <c r="S54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="3">
-        <v>18219000</v>
+      <c r="T54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U54" s="3">
         <v>18219000</v>
       </c>
       <c r="V54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="W54" s="3">
         <v>18718000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19237000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19106000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20157000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20038000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,50 +4187,51 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1842000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1781000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1718000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1489000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1427000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1216000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1106000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>836000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>683000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>938000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1061000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1056000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>24</v>
       </c>
@@ -4110,44 +4241,47 @@
       <c r="S57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="3">
         <v>2024000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1874000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1839000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1656000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1667000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1597000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1744000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="3">
         <v>50000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4166,12 +4300,12 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4187,74 +4321,77 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>48000</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U58" s="3">
         <v>48000</v>
       </c>
       <c r="V58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="W58" s="3">
         <v>38000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>55000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>48000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>47000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>40000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E59" s="3">
         <v>364000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>443000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>345000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>425000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>423000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>396000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>367000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>390000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>401000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>335000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>280000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>24</v>
       </c>
@@ -4264,74 +4401,77 @@
       <c r="S59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U59" s="3">
         <v>905000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>880000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>947000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>966000</v>
-      </c>
-      <c r="X59" s="3">
-        <v>943000</v>
       </c>
       <c r="Y59" s="3">
         <v>943000</v>
       </c>
       <c r="Z59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>965000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2256000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2324000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2063000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1914000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1850000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1612000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1473000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1226000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1084000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1279000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1341000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1339000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>24</v>
       </c>
@@ -4341,32 +4481,35 @@
       <c r="S60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60" s="3">
         <v>2977000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2802000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2824000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2677000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2658000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2587000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2749000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,40 +4517,40 @@
         <v>1596000</v>
       </c>
       <c r="E61" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1595000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1594000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1593000</v>
       </c>
       <c r="H61" s="3">
         <v>1593000</v>
       </c>
       <c r="I61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1592000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1278000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1277000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1276000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>250000</v>
       </c>
       <c r="O61" s="3">
         <v>250000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4419,73 +4562,76 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>6312000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6309000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6806000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6802000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6796000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8046000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8044000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1253000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1288000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1364000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1411000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1472000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1879000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2116000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2155000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2213000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2145000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>558000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>461000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4495,32 +4641,35 @@
       <c r="S62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" s="3">
         <v>3712000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3826000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4164000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3797000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3899000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4029000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4104000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,50 +4905,53 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4808000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5120000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5221000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5035000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4932000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4929000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5097000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4881000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4672000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4587000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4856000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2099000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2064000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4803,32 +4961,35 @@
       <c r="S66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66" s="3">
         <v>13015000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12951000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13808000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13289000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13366000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14675000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14923000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5064,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>55000</v>
@@ -5073,7 +5241,7 @@
         <v>55000</v>
       </c>
       <c r="W70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="X70" s="3">
         <v>58000</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,50 +5335,53 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-396000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-510000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-552000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-514000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-530000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-103000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-155000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-92000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3045000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2664000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2416000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>24</v>
       </c>
@@ -5217,32 +5391,35 @@
       <c r="S72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-519000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-567000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-768000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,50 +5655,53 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1793000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1547000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1545000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1564000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1614000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1476000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1433000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1474000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1146000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1613000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2959000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2726000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>24</v>
       </c>
@@ -5525,32 +5711,35 @@
       <c r="S76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U76" s="3">
         <v>5149000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5213000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4855000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5890000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5682000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5424000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5057000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E81" s="3">
         <v>114000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-427000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-96000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>138000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U81" s="3">
         <v>120000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>142000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-727000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>194000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>305000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E83" s="3">
         <v>62000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>62000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>64000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U83" s="3">
         <v>144000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>142000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>141000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>140000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>137000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>133000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1132000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E89" s="3">
         <v>162000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-103000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-167000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-294000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-260000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>312000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>197000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U89" s="3">
         <v>176000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-436000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>612000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>172000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>217000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>870000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-95000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-81000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-122000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U91" s="3">
         <v>-171000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-117000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-236000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-131000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-126000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-206000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-94000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>78000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>180000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U94" s="3">
         <v>117000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>41000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>100000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>69000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1110000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-165000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6773,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-30000</v>
@@ -6782,22 +7016,25 @@
         <v>-30000</v>
       </c>
       <c r="W96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-44000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-228000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,100 +7270,106 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-98000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>297000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-643000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1374000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-227000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-78000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-410000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U100" s="3">
         <v>-35000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-542000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-860000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-754000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7128,134 +7377,140 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1000</v>
       </c>
       <c r="P101" s="3">
         <v>-1000</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E102" s="3">
         <v>42000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-125000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-191000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-223000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>207000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-633000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1156000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-35000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U102" s="3">
         <v>252000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-945000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>335000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>30000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-768000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>690000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>ARNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1942000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2280000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2548000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2191000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2138000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1890000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1801000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1675000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1462000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1415000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1187000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1611000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1708000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1805000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1923000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1841000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1809000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1882000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3573000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3445000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3271000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3236000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3261000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3192000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12394000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2074000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2258000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1956000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1899000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1676000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1567000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1431000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1248000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1218000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1051000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1345000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1522000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1543000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1671000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1596000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1597000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="3">
         <v>2903000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2768000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2520000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2626000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2583000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2492000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9811000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E10" s="3">
         <v>206000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>290000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>235000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>239000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>214000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>234000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>244000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>214000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>136000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>266000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>186000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>262000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>252000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>245000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>212000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="3">
         <v>670000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>677000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>751000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>610000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>678000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>700000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2583000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,13 +1058,14 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="3">
         <v>9000</v>
@@ -1064,70 +1077,73 @@
         <v>9000</v>
       </c>
       <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8000</v>
       </c>
       <c r="M12" s="3">
         <v>8000</v>
       </c>
       <c r="N12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O12" s="3">
         <v>11000</v>
       </c>
       <c r="P12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="3">
         <v>29000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>26000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>25000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>30000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>28000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>132000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E14" s="3">
         <v>112000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>77000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>597000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>127000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>77000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>64000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>38000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-104000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="3">
         <v>15000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>766000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>26000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>73000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>155000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E15" s="3">
         <v>59000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>60000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>67000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>61000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>62000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>63000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>68000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>60000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>62000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>63000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>64000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>63000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>74000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="3">
         <v>144000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>142000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>141000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>140000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>137000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>133000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>535000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2193000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2316000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2404000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2095000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2116000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1822000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2296000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1562000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1508000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1351000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1259000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1477000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1669000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1761000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1871000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1761000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1647000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="3">
         <v>3249000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3112000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3588000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2965000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2980000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2947000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11575000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>144000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-495000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>113000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-72000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>134000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="3">
         <v>324000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>333000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-317000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>271000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>281000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>245000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>819000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,22 +1615,23 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-15000</v>
       </c>
       <c r="H20" s="3">
         <v>-15000</v>
@@ -1607,182 +1640,188 @@
         <v>-15000</v>
       </c>
       <c r="J20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" s="3">
         <v>-41000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-40000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>171000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>469000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>94000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>241000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>139000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-448000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>168000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>107000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>157000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>241000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="3">
         <v>427000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>455000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-216000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>412000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>589000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>847000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2045000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>27000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>26000</v>
       </c>
       <c r="H22" s="3">
         <v>26000</v>
       </c>
       <c r="I22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J22" s="3">
         <v>25000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>29000</v>
       </c>
       <c r="P22" s="3">
         <v>29000</v>
@@ -1791,200 +1830,209 @@
         <v>29000</v>
       </c>
       <c r="R22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S22" s="3">
         <v>28000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>30000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="3">
         <v>89000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>114000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>98000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>183000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>230000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>499000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-90000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>153000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-535000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-68000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-128000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>137000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" s="3">
         <v>194000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>199000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-455000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>172000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>269000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>484000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>414000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-108000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-117000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" s="3">
         <v>74000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>56000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>53000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>162000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1476000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>115000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-427000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-96000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>138000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>99000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="3">
         <v>120000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>143000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-455000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>119000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>212000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>322000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>114000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-427000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-64000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-96000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>99000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="3">
         <v>120000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>142000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-455000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>101000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>194000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>305000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,18 +2419,18 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-272000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2378,13 +2438,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>121000</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,22 +2609,25 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>15000</v>
       </c>
       <c r="H32" s="3">
         <v>15000</v>
@@ -2567,144 +2636,150 @@
         <v>15000</v>
       </c>
       <c r="J32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K32" s="3">
         <v>22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" s="3">
         <v>41000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>40000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-469000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-94000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>114000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-427000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-64000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-96000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>138000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" s="3">
         <v>120000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>142000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-727000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>101000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>194000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>305000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>114000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-427000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-64000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-96000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>138000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="3">
         <v>120000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>142000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-727000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>101000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>194000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>305000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,53 +3093,54 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E41" s="3">
         <v>312000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>252000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>210000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>335000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>349000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>540000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>763000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>787000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>802000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>595000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>635000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>24</v>
       </c>
@@ -3064,32 +3150,35 @@
       <c r="T41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" s="3">
         <v>1455000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1205000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2150000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1815000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1785000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>1863000</v>
       </c>
       <c r="AB41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,53 +3257,56 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1016000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1256000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1254000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1148000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1074000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1018000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>951000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>759000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>758000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>683000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>799000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>520000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>562000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3224,77 +3316,80 @@
       <c r="T43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43" s="3">
         <v>1637000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1663000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1374000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1523000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1527000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1510000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1451000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1750000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1910000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1833000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1630000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1525000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1397000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1199000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1043000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>901000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>678000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>844000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>828000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>877000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>24</v>
       </c>
@@ -3304,77 +3399,80 @@
       <c r="T44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V44" s="3">
         <v>2659000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2648000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2480000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2453000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2416000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2328000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2253000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E45" s="3">
         <v>228000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>256000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>635000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3384,77 +3482,80 @@
       <c r="T45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V45" s="3">
         <v>324000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>379000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>374000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>357000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>305000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>319000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>325000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3306000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3674000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3369000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3168000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3009000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3018000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2958000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2642000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2521000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2010000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2913000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1757000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3464,32 +3565,35 @@
       <c r="T46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V46" s="3">
         <v>6075000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5895000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6378000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6148000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6033000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6710000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5892000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3560,61 +3664,64 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>446000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1020000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2476000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2588000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2708000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2756000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2773000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2746000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2766000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2811000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2856000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2848000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2864000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2805000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2869000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2838000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3624,77 +3731,80 @@
       <c r="T48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V48" s="3">
         <v>5582000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5628000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5594000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5526000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5507000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5473000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5499000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E49" s="3">
         <v>294000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>308000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>319000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>322000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>388000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>391000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>389000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>390000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>381000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>374000</v>
       </c>
       <c r="N49" s="3">
         <v>374000</v>
       </c>
       <c r="O49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="P49" s="3">
         <v>386000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3704,32 +3814,35 @@
       <c r="T49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49" s="3">
         <v>5481000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5563000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5522000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5246000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5215000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5170000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5148000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,53 +4004,56 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E52" s="3">
         <v>234000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>324000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>317000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>353000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>368000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>415000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>426000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>396000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>485000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>377000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>46000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3944,32 +4063,35 @@
       <c r="T52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="3">
         <v>1081000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1133000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1224000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2317000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2351000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2358000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2479000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,53 +4170,56 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6015000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6422000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6913000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6768000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6580000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6496000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6543000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6573000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6314000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6146000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5733000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6469000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5058000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4790000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>24</v>
       </c>
@@ -4104,32 +4229,35 @@
       <c r="T54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U54" s="3">
-        <v>18219000</v>
+      <c r="U54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V54" s="3">
         <v>18219000</v>
       </c>
       <c r="W54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="X54" s="3">
         <v>18718000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19237000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19106000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20157000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20038000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,53 +4317,54 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1489000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1842000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1781000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1718000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1489000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1427000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1216000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1106000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>836000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>683000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>938000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1061000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>24</v>
       </c>
@@ -4244,47 +4374,50 @@
       <c r="T57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V57" s="3">
         <v>2024000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1874000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1839000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1656000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1667000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1597000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1744000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="3">
         <v>150000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4303,12 +4436,12 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4324,77 +4457,80 @@
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>48000</v>
+      <c r="U58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V58" s="3">
         <v>48000</v>
       </c>
       <c r="W58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="X58" s="3">
         <v>38000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>55000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>48000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>47000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>40000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E59" s="3">
         <v>361000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>364000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>443000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>345000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>423000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>396000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>367000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>390000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>401000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>335000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>280000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>24</v>
       </c>
@@ -4404,77 +4540,80 @@
       <c r="T59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V59" s="3">
         <v>905000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>880000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>947000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>966000</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>943000</v>
       </c>
       <c r="Z59" s="3">
         <v>943000</v>
       </c>
       <c r="AA59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="AB59" s="3">
         <v>965000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1971000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2256000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2324000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2063000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1914000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1850000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1612000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1473000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1226000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1084000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1279000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1341000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1339000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>24</v>
       </c>
@@ -4484,76 +4623,79 @@
       <c r="T60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V60" s="3">
         <v>2977000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2802000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2824000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2677000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2658000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2587000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2749000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1596000</v>
+        <v>1597000</v>
       </c>
       <c r="E61" s="3">
         <v>1596000</v>
       </c>
       <c r="F61" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1595000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1594000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1593000</v>
       </c>
       <c r="I61" s="3">
         <v>1593000</v>
       </c>
       <c r="J61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1592000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1278000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1277000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1276000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>250000</v>
       </c>
       <c r="P61" s="3">
         <v>250000</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4565,76 +4707,79 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>6312000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6309000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6806000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6802000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6796000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8046000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8044000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1197000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1253000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1288000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1364000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1411000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1472000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1879000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2116000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2155000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2213000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2145000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>558000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>461000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4644,32 +4789,35 @@
       <c r="T62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V62" s="3">
         <v>3712000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3826000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4164000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3797000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3899000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4029000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4104000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,53 +5062,56 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4658000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4808000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5120000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5221000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5035000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4932000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4929000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5097000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4881000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4672000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4587000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4856000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2099000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2064000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>24</v>
       </c>
@@ -4964,32 +5121,35 @@
       <c r="T66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V66" s="3">
         <v>13015000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12951000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13808000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13289000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13366000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14675000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>14923000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5235,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>55000</v>
@@ -5244,7 +5411,7 @@
         <v>55000</v>
       </c>
       <c r="X70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="Y70" s="3">
         <v>58000</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,53 +5508,56 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-734000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-461000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-396000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-510000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-552000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-514000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-530000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-103000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-155000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-92000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3045000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2664000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2416000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>24</v>
       </c>
@@ -5394,32 +5567,35 @@
       <c r="T72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-519000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-567000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-768000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,53 +5840,56 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1614000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1793000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1547000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1545000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1564000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1614000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1476000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1433000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1474000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1146000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1613000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2959000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2726000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>24</v>
       </c>
@@ -5714,32 +5899,35 @@
       <c r="T76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V76" s="3">
         <v>5149000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5213000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4855000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5890000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5682000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5424000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5057000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>114000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-427000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-64000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-96000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>138000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V81" s="3">
         <v>120000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>142000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-727000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>101000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>194000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>305000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E83" s="3">
         <v>59000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>61000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>62000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>64000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>74000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V83" s="3">
         <v>144000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>142000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>141000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>140000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>137000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>133000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1132000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E89" s="3">
         <v>91000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>162000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-103000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-167000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-294000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-260000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>312000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>118000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>197000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V89" s="3">
         <v>176000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-436000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>612000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>172000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>217000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>870000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-95000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-81000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-122000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V91" s="3">
         <v>-171000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-117000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-236000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-126000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-206000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-94000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-82000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>180000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V94" s="3">
         <v>117000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>29000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>41000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>100000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>69000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1110000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-165000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7010,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-30000</v>
@@ -7019,22 +7252,25 @@
         <v>-30000</v>
       </c>
       <c r="X96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-228000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,106 +7515,112 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E100" s="3">
         <v>15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-98000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>297000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-643000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1374000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-227000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-410000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V100" s="3">
         <v>-35000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-542000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-860000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-754000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7380,137 +7628,143 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>2000</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q101" s="3">
         <v>-1000</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E102" s="3">
         <v>60000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>42000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-125000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-191000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-223000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>207000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-633000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1156000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-35000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V102" s="3">
         <v>252000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-945000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>335000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>30000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-768000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>690000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-66000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARNC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1942000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2280000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2548000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2191000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2138000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1890000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1801000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1675000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1462000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1415000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1187000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1611000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1708000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1805000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1923000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1841000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1809000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1882000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3573000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3445000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3271000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3236000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3261000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3192000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12394000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5213000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1724000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1744000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2074000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2258000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1956000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1899000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1676000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1567000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1431000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1248000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1218000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1051000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1345000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1543000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1671000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1596000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1597000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="3">
         <v>2903000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2768000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2520000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2626000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2583000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2492000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>9811000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4217000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E10" s="3">
         <v>198000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>206000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>290000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>235000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>239000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>214000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>234000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>244000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>214000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>197000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>136000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>266000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>186000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>262000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>252000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>245000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>212000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="3">
         <v>670000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>677000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>751000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>610000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>678000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>700000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2583000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,16 +1072,17 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9000</v>
       </c>
       <c r="F12" s="3">
         <v>9000</v>
@@ -1080,70 +1094,73 @@
         <v>9000</v>
       </c>
       <c r="I12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8000</v>
       </c>
       <c r="N12" s="3">
         <v>8000</v>
       </c>
       <c r="O12" s="3">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P12" s="3">
         <v>11000</v>
       </c>
       <c r="Q12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="3">
         <v>29000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>26000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>25000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>30000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>28000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>132000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>337000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>112000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>77000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>597000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>127000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>77000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>64000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>38000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-104000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="3">
         <v>15000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>766000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>19000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>26000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>73000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>155000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E15" s="3">
         <v>56000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>62000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>67000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>61000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>62000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>63000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>68000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>60000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>62000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>63000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>64000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>63000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>74000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="3">
         <v>144000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>142000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>141000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>140000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>137000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>133000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>535000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2193000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2316000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2404000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2095000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2116000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1822000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2296000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1562000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1508000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1351000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1259000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1477000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1761000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1871000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1761000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1647000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="3">
         <v>3249000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3112000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3588000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2965000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2980000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2947000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11575000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4864000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-251000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>144000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-495000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-72000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>134000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>80000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>162000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="3">
         <v>324000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>333000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-317000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>271000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>281000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>245000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>819000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,25 +1649,26 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-32000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-15000</v>
       </c>
       <c r="I20" s="3">
         <v>-15000</v>
@@ -1643,188 +1677,194 @@
         <v>-15000</v>
       </c>
       <c r="K20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="3">
         <v>-41000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>171000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>469000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>94000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-227000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>241000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>139000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-448000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>168000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>107000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>157000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>241000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" s="3">
         <v>427000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>455000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-216000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>412000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>589000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>847000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2045000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>782000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>26000</v>
       </c>
       <c r="I22" s="3">
         <v>26000</v>
       </c>
       <c r="J22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>29000</v>
       </c>
       <c r="Q22" s="3">
         <v>29000</v>
@@ -1833,206 +1873,215 @@
         <v>29000</v>
       </c>
       <c r="S22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T22" s="3">
         <v>28000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>30000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" s="3">
         <v>89000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>114000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>98000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>183000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>230000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>499000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-309000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-90000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>153000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-535000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-68000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-128000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>137000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="3">
         <v>194000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>199000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-455000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>172000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>269000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>484000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>414000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-36000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-108000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="3">
         <v>74000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>56000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>53000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>57000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>162000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1476000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-273000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>115000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-427000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-64000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-96000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>138000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>99000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="3">
         <v>120000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>143000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-455000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>119000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>212000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>322000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1062000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-273000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>114000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-427000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-64000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-96000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>99000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W27" s="3">
         <v>120000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>142000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-455000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>101000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>194000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>305000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1131000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,18 +2483,18 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
@@ -2441,13 +2502,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>121000</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,25 +2679,28 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>32000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>15000</v>
       </c>
       <c r="I32" s="3">
         <v>15000</v>
@@ -2639,147 +2709,153 @@
         <v>15000</v>
       </c>
       <c r="K32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L32" s="3">
         <v>22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W32" s="3">
         <v>41000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>40000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-171000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-469000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-94000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-117000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-273000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>114000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-427000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-64000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-96000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>138000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W33" s="3">
         <v>120000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>142000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-727000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>101000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>194000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>305000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-273000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>114000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-427000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-64000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-96000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>138000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W35" s="3">
         <v>120000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>142000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-727000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>101000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>194000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>305000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,56 +3180,57 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E41" s="3">
         <v>261000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>312000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>252000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>210000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>335000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>349000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>540000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>763000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>787000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>802000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>595000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>635000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>47000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>24</v>
       </c>
@@ -3153,32 +3240,35 @@
       <c r="U41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W41" s="3">
         <v>1455000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1205000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2150000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1815000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1785000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2553000</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>1863000</v>
       </c>
       <c r="AC41" s="3">
         <v>1863000</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,56 +3350,59 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="E43" s="3">
         <v>974000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1016000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1256000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1254000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1148000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1074000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1018000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>951000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>759000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>758000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>683000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>799000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>520000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>562000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3319,80 +3412,83 @@
       <c r="U43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W43" s="3">
         <v>1637000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1663000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1374000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1523000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1527000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1510000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1451000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2133000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1622000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1750000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1910000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1833000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1630000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1525000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1397000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1199000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1043000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>901000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>678000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>844000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>828000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>877000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>24</v>
       </c>
@@ -3402,80 +3498,83 @@
       <c r="U44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W44" s="3">
         <v>2659000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2648000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2480000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2453000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2416000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2328000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2253000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3455000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E45" s="3">
         <v>145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>228000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>256000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>635000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3485,80 +3584,83 @@
       <c r="U45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W45" s="3">
         <v>324000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>379000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>374000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>357000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>305000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>319000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>325000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1917000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3086000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3002000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3306000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3674000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3369000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3168000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3009000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3018000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2958000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2642000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2521000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2010000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2913000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1757000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1535000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>24</v>
       </c>
@@ -3568,32 +3670,35 @@
       <c r="U46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W46" s="3">
         <v>6075000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5895000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6378000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6148000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6033000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6710000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5892000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9368000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3667,64 +3772,67 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>446000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1020000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1465000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2480000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2476000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2588000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2708000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2756000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2773000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2746000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2766000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2811000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2856000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2848000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2864000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2805000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2869000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2838000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>24</v>
       </c>
@@ -3734,80 +3842,83 @@
       <c r="U48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W48" s="3">
         <v>5582000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5628000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5594000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5526000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5507000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5473000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5499000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15122000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E49" s="3">
         <v>292000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>294000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>308000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>319000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>322000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>388000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>391000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>389000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>390000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>381000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>374000</v>
       </c>
       <c r="O49" s="3">
         <v>374000</v>
       </c>
       <c r="P49" s="3">
+        <v>374000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>386000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>380000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>24</v>
       </c>
@@ -3817,32 +3928,35 @@
       <c r="U49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W49" s="3">
         <v>5481000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5563000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5522000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5246000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5215000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5170000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5148000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5384000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,56 +4124,59 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E52" s="3">
         <v>245000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>234000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>223000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>324000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>317000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>353000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>368000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>415000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>426000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>396000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>485000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>377000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>24</v>
       </c>
@@ -4066,32 +4186,35 @@
       <c r="U52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W52" s="3">
         <v>1081000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1133000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1224000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2317000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2351000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2358000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2479000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>6109000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,56 +4296,59 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6103000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6015000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6422000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6913000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6768000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6580000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6496000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6543000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6573000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6314000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6146000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5733000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6469000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5058000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4790000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>24</v>
       </c>
@@ -4232,32 +4358,35 @@
       <c r="U54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V54" s="3">
-        <v>18219000</v>
+      <c r="V54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W54" s="3">
         <v>18219000</v>
       </c>
       <c r="X54" s="3">
+        <v>18219000</v>
+      </c>
+      <c r="Y54" s="3">
         <v>18718000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19237000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19106000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20157000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>20038000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>37448000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,56 +4448,57 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1578000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1489000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1842000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1781000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1718000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1489000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1427000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1216000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1106000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>836000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>683000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>938000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1061000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1056000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>24</v>
       </c>
@@ -4377,50 +4508,53 @@
       <c r="U57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W57" s="3">
         <v>2024000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1874000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1839000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1656000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1667000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1597000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1744000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2739000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3">
         <v>150000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4439,12 +4573,12 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
@@ -4460,80 +4594,83 @@
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>48000</v>
+      <c r="V58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W58" s="3">
         <v>48000</v>
       </c>
       <c r="X58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>38000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>55000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>48000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>47000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>40000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>805000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E59" s="3">
         <v>393000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>361000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>364000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>443000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>423000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>396000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>367000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>390000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>401000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>335000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>280000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>24</v>
       </c>
@@ -4543,80 +4680,83 @@
       <c r="U59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W59" s="3">
         <v>905000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>880000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>947000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>966000</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>943000</v>
       </c>
       <c r="AA59" s="3">
         <v>943000</v>
       </c>
       <c r="AB59" s="3">
+        <v>943000</v>
+      </c>
+      <c r="AC59" s="3">
         <v>965000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1956000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1971000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2256000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2324000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2063000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1914000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1850000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1612000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1473000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1226000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1084000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1279000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1339000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>24</v>
       </c>
@@ -4626,32 +4766,35 @@
       <c r="U60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W60" s="3">
         <v>2977000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2802000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2824000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2677000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2658000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2587000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2749000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4659,46 +4802,46 @@
         <v>1597000</v>
       </c>
       <c r="E61" s="3">
-        <v>1596000</v>
+        <v>1597000</v>
       </c>
       <c r="F61" s="3">
         <v>1596000</v>
       </c>
       <c r="G61" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1595000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1594000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1593000</v>
       </c>
       <c r="J61" s="3">
         <v>1593000</v>
       </c>
       <c r="K61" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="L61" s="3">
         <v>1592000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1278000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1277000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1276000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1419000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>250000</v>
       </c>
       <c r="Q61" s="3">
         <v>250000</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4710,79 +4853,82 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>6312000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6309000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6806000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6802000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6796000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8046000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8044000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9501000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1090000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1197000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1253000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1288000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1364000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1411000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1472000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1879000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2116000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2155000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2213000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2145000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>558000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>461000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>24</v>
       </c>
@@ -4792,32 +4938,35 @@
       <c r="U62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W62" s="3">
         <v>3712000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3826000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4164000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3797000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3899000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4029000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4104000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>8502000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,56 +5220,59 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4706000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4658000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4808000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5120000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5221000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5035000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4932000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4929000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5097000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4881000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4672000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4587000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4856000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2099000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2064000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>24</v>
       </c>
@@ -5124,32 +5282,35 @@
       <c r="U66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W66" s="3">
         <v>13015000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12951000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13808000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13289000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13366000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>14675000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>14923000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>25673000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5405,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>55000</v>
@@ -5414,7 +5582,7 @@
         <v>55000</v>
       </c>
       <c r="Y70" s="3">
-        <v>58000</v>
+        <v>55000</v>
       </c>
       <c r="Z70" s="3">
         <v>58000</v>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,56 +5682,59 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-709000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-734000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-461000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-396000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-510000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-552000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-514000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-530000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-103000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-155000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-92000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3045000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2664000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2416000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>24</v>
       </c>
@@ -5570,32 +5744,35 @@
       <c r="U72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W72" s="3">
         <v>-1073000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1164000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1248000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-519000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-567000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-768000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1027000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8940000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,56 +6026,59 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1357000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1614000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1793000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1547000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1545000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1564000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1614000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1476000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1433000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1474000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1146000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1613000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2959000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2726000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>24</v>
       </c>
@@ -5902,32 +6088,35 @@
       <c r="U76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W76" s="3">
         <v>5149000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5213000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4855000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5890000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5682000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5424000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5057000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11717000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-273000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>114000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-427000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-64000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-96000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>138000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W81" s="3">
         <v>120000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>142000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-727000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>101000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>194000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>305000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>148000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E83" s="3">
         <v>56000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>62000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>61000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>68000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>62000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>64000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>74000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W83" s="3">
         <v>144000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>142000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>141000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>140000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>137000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>133000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1132000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E89" s="3">
         <v>188000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>91000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>162000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-103000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>96000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-167000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-294000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>240000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-260000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>312000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>118000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>197000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W89" s="3">
         <v>176000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-436000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>612000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>172000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>217000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>870000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>306000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-95000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-122000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W91" s="3">
         <v>-171000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-117000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-236000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-126000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-206000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-286000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-94000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>78000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>180000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W94" s="3">
         <v>117000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>29000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>41000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>100000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>69000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1110000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-165000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-231000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7246,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-30000</v>
@@ -7255,22 +7489,25 @@
         <v>-30000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-45000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-228000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-197000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>72000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-98000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>297000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-643000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1374000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-78000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-410000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W100" s="3">
         <v>-35000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-542000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-860000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-43000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-754000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7610,20 +7859,20 @@
         <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -7631,140 +7880,146 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>2000</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-1000</v>
       </c>
       <c r="R101" s="3">
         <v>-1000</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>42000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-125000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-191000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-223000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>207000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-633000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1156000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-35000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W102" s="3">
         <v>252000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-945000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>335000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-768000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>690000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-56000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-66000</v>
       </c>
     </row>
